--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_15_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_15_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>936511.298004139</v>
+        <v>862774.0168447257</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9376155.696699588</v>
+        <v>9376155.696699589</v>
       </c>
     </row>
     <row r="8">
@@ -1387,10 +1387,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>51.5566847840604</v>
+        <v>57.83218024033633</v>
       </c>
       <c r="I11" t="n">
-        <v>57.83218024033636</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,16 +1417,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>57.2140798119642</v>
+        <v>57.21407981196421</v>
       </c>
       <c r="S11" t="n">
-        <v>57.83218024033636</v>
+        <v>57.83218024033633</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>51.55668478406035</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1448,13 +1448,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>57.83218024033636</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>57.83218024033636</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>57.83218024033636</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>50.93858435568821</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>57.83218024033633</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>57.83218024033633</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>57.83218024033633</v>
       </c>
       <c r="Y12" t="n">
-        <v>50.93858435568824</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1533,25 +1533,25 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>57.83218024033633</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>20.18002429393064</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>57.83218024033636</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>57.83218024033636</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>57.83218024033636</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>46.58110078021219</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>30.75856006175759</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1584,13 +1584,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>57.83218024033633</v>
       </c>
       <c r="V13" t="n">
-        <v>4.357483575476083</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>57.83218024033633</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>50.93858435568826</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1618,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>57.83218024033636</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>57.83218024033636</v>
@@ -1654,13 +1654,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>57.2140798119642</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>57.83218024033636</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>51.5566847840604</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>57.83218024033636</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1733,22 +1733,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>50.93858435568824</v>
+        <v>51.15797734664877</v>
       </c>
       <c r="S15" t="n">
         <v>57.83218024033636</v>
       </c>
       <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>57.61278724937581</v>
+      </c>
+      <c r="W15" t="n">
         <v>57.83218024033636</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0</v>
-      </c>
-      <c r="V15" t="n">
-        <v>57.83218024033636</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1779,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>57.83218024033636</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>20.18002429393069</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>57.83218024033636</v>
@@ -1809,22 +1809,22 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>30.75856006175758</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
         <v>57.83218024033636</v>
       </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>57.83218024033636</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>50.93858435568826</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1846,64 +1846,64 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>7.892025018110862</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>65.10610483007507</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>73.91701274985817</v>
       </c>
       <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>57.2140798119642</v>
+      </c>
+      <c r="S17" t="n">
         <v>73.91701274985817</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
         <v>73.91701274985817</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1925,10 +1925,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>73.91701274985817</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>73.91701274985817</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1970,25 +1970,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>51.15797734664877</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
+        <v>65.1061048300751</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
         <v>73.91701274985817</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0</v>
-      </c>
-      <c r="V18" t="n">
-        <v>73.91701274985817</v>
-      </c>
-      <c r="W18" t="n">
-        <v>73.91701274985817</v>
-      </c>
-      <c r="X18" t="n">
-        <v>13.94812748342628</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>73.91701274985817</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2046,28 +2046,28 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>30.75856006175758</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
         <v>73.91701274985817</v>
       </c>
-      <c r="S19" t="n">
+      <c r="W19" t="n">
+        <v>65.10610483007507</v>
+      </c>
+      <c r="X19" t="n">
         <v>73.91701274985817</v>
-      </c>
-      <c r="T19" t="n">
-        <v>73.91701274985817</v>
-      </c>
-      <c r="U19" t="n">
-        <v>34.34754476831749</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,26 +2080,26 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>73.91701274985817</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>73.91701274985817</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
         <v>73.91701274985817</v>
       </c>
-      <c r="F20" t="n">
-        <v>73.91701274985817</v>
-      </c>
-      <c r="G20" t="n">
-        <v>73.91701274985817</v>
-      </c>
-      <c r="H20" t="n">
-        <v>65.10610483007505</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>57.2140798119642</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>7.892025018110891</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2159,10 +2159,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>65.10610483007505</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>13.94812748342628</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2207,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>51.15797734664877</v>
       </c>
       <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
         <v>73.91701274985817</v>
-      </c>
-      <c r="T21" t="n">
-        <v>73.91701274985817</v>
-      </c>
-      <c r="U21" t="n">
-        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>73.91701274985817</v>
@@ -2225,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>73.91701274985817</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2238,76 +2238,76 @@
         </is>
       </c>
       <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>65.10610483007505</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
         <v>73.91701274985817</v>
       </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
         <v>73.91701274985817</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
       <c r="U22" t="n">
-        <v>65.1061048300751</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>73.91701274985817</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.91701274985817</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2320,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>167.8571228450911</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2329,16 +2329,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>167.8571228450911</v>
       </c>
       <c r="G23" t="n">
-        <v>162.0953808915448</v>
+        <v>167.8571228450911</v>
       </c>
       <c r="H23" t="n">
-        <v>167.8571228450911</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>153.6102957555025</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2380,13 +2380,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>167.8571228450911</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>147.8485538019562</v>
       </c>
     </row>
     <row r="24">
@@ -2399,64 +2399,64 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>157.6450804554009</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>157.0240588141101</v>
+      </c>
+      <c r="T24" t="n">
         <v>167.8571228450911</v>
       </c>
-      <c r="D24" t="n">
-        <v>147.4450655646388</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>145.0692123933839</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>23.19139868902472</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" t="n">
-        <v>0</v>
-      </c>
-      <c r="S24" t="n">
-        <v>0</v>
-      </c>
-      <c r="T24" t="n">
-        <v>0</v>
-      </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>167.8571228450911</v>
       </c>
       <c r="V24" t="n">
-        <v>167.8571228450911</v>
+        <v>1.036537377536306</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2478,10 +2478,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.090203628835</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3293375008002</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.3763391462472</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2532,16 +2532,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>167.8571228450911</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>167.8571228450911</v>
       </c>
       <c r="W25" t="n">
-        <v>167.8571228450911</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>167.8571228450911</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2569,13 +2569,13 @@
         <v>167.8571228450911</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>167.8571228450911</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>90.63447398999197</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,19 +2602,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>57.2140798119642</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>147.8485538019562</v>
+        <v>167.8571228450911</v>
       </c>
       <c r="U26" t="n">
-        <v>167.8571228450911</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>167.8571228450911</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2633,13 +2633,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2648,13 +2648,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>107.3600618121353</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>62.22448846549705</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2684,19 +2684,19 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>157.0240588141101</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>167.8571228450911</v>
       </c>
       <c r="U27" t="n">
-        <v>167.8571228450911</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>158.6816178329372</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>167.8571228450911</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.3293375008002</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2736,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>0.8327716597981528</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>147.5435674864489</v>
       </c>
       <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
         <v>167.8571228450911</v>
       </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
       <c r="U28" t="n">
-        <v>167.8571228450911</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>167.8571228450911</v>
       </c>
       <c r="W28" t="n">
-        <v>147.8485538019563</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,73 +2791,73 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>90.63447398999197</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>57.2140798119642</v>
+      </c>
+      <c r="S29" t="n">
         <v>167.8571228450911</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
         <v>167.8571228450911</v>
       </c>
-      <c r="H29" t="n">
-        <v>147.8485538019563</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
         <v>167.8571228450911</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>158.6816178329372</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2921,13 +2921,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>157.0240588141101</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>167.8571228450911</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>147.8485538019562</v>
       </c>
       <c r="V30" t="n">
         <v>167.8571228450911</v>
@@ -2936,10 +2936,10 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>167.8571228450911</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>167.8571228450911</v>
       </c>
     </row>
     <row r="31">
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3293375008002</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2994,28 +2994,28 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.8327716597983339</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>147.5435674864489</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>147.8485538019562</v>
+      </c>
+      <c r="U31" t="n">
         <v>167.8571228450911</v>
       </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
       <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
         <v>167.8571228450911</v>
       </c>
-      <c r="W31" t="n">
-        <v>0</v>
-      </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>167.8571228450911</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,73 +3028,73 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>167.8571228450911</v>
       </c>
       <c r="C32" t="n">
-        <v>147.8485538019563</v>
+        <v>167.8571228450911</v>
       </c>
       <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>57.2140798119642</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
         <v>167.8571228450911</v>
       </c>
-      <c r="E32" t="n">
-        <v>167.8571228450911</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>90.63447398999202</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>167.8571228450911</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3116,7 +3116,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>98.01451565053121</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3155,19 +3155,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>51.15797734664877</v>
       </c>
       <c r="S33" t="n">
-        <v>157.0240588141101</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>167.8571228450911</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>167.8571228450911</v>
       </c>
       <c r="V33" t="n">
-        <v>167.8571228450911</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -3176,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>158.6816178329372</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>156.344574900257</v>
+        <v>147.8485538019563</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>167.8571228450911</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>159.3611017467903</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>167.8571228450911</v>
@@ -3265,61 +3265,61 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>110.0249426047548</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
         <v>96.90996944626795</v>
       </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>110.0249426047548</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3328,10 +3328,10 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>110.0249426047548</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>110.0249426047548</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>110.0249426047548</v>
@@ -3362,10 +3362,10 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>104.6133981297714</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>51.16353657460249</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,25 +3392,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>51.15797734664877</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>110.0249426047548</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>110.0249426047548</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>96.90996944626795</v>
       </c>
       <c r="X36" t="n">
-        <v>110.0249426047548</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>110.0249426047548</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>110.0249426047548</v>
+      </c>
+      <c r="F37" t="n">
         <v>96.90996944626795</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3483,13 +3483,13 @@
         <v>110.0249426047548</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>110.0249426047548</v>
       </c>
       <c r="W37" t="n">
-        <v>110.0249426047548</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>110.0249426047548</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3514,10 +3514,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>110.0249426047548</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>110.0249426047548</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3550,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>57.2140798119642</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>110.0249426047548</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>96.90996944626795</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>110.0249426047548</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>110.0249426047548</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>110.0249426047548</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>39.69588963430375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3584,70 +3584,70 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>110.0249426047548</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0</v>
+      </c>
+      <c r="U39" t="n">
+        <v>110.0249426047548</v>
+      </c>
+      <c r="V39" t="n">
+        <v>110.0249426047548</v>
+      </c>
+      <c r="W39" t="n">
         <v>96.90996944626795</v>
       </c>
-      <c r="D39" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
-        <v>110.0249426047548</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>0</v>
-      </c>
-      <c r="R39" t="n">
-        <v>0</v>
-      </c>
-      <c r="S39" t="n">
-        <v>0</v>
-      </c>
-      <c r="T39" t="n">
-        <v>110.0249426047548</v>
-      </c>
-      <c r="U39" t="n">
-        <v>0</v>
-      </c>
-      <c r="V39" t="n">
-        <v>0</v>
-      </c>
-      <c r="W39" t="n">
-        <v>0</v>
-      </c>
       <c r="X39" t="n">
-        <v>110.0249426047548</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3660,73 +3660,73 @@
         </is>
       </c>
       <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>110.0249426047548</v>
       </c>
-      <c r="C40" t="n">
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>96.90996944626795</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
         <v>110.0249426047548</v>
       </c>
-      <c r="D40" t="n">
-        <v>96.90996944626795</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
         <v>110.0249426047548</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
-      </c>
-      <c r="X40" t="n">
-        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3742,22 +3742,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>93.94011009523297</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>93.94011009523297</v>
       </c>
       <c r="E41" t="n">
-        <v>93.94011009523305</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>93.94011009523305</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>93.94011009523305</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>82.74244897188129</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3799,10 +3799,10 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>93.94011009523297</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>82.74244897188119</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3818,19 +3818,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>93.94011009523297</v>
       </c>
       <c r="C42" t="n">
-        <v>31.58447162523245</v>
+        <v>93.94011009523297</v>
       </c>
       <c r="D42" t="n">
-        <v>93.94011009523305</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>93.94011009523305</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>93.94011009523305</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3884,10 +3884,10 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>31.5844716252324</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>93.94011009523297</v>
       </c>
     </row>
     <row r="43">
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>93.94011009523297</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3942,22 +3942,22 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>30.75856006175758</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>93.94011009523305</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>93.94011009523305</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>93.94011009523305</v>
+        <v>93.94011009523297</v>
       </c>
       <c r="U43" t="n">
-        <v>51.98388891012372</v>
+        <v>93.94011009523297</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>82.74244897188116</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>93.94011009523297</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>93.94011009523297</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>25.52836915991709</v>
+        <v>25.52836915991695</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>57.2140798119642</v>
       </c>
       <c r="S44" t="n">
-        <v>93.94011009523305</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>93.94011009523305</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>93.94011009523305</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>93.94011009523297</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4055,10 +4055,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>93.94011009523305</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>31.5844716252325</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4073,10 +4073,10 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>93.94011009523297</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>31.58447162523237</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4106,10 +4106,10 @@
         <v>51.15797734664877</v>
       </c>
       <c r="S45" t="n">
-        <v>93.94011009523305</v>
+        <v>93.94011009523297</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>93.94011009523297</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -4124,7 +4124,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>93.94011009523305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>93.94011009523305</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4149,16 +4149,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>5.402788129911537</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>93.94011009523305</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>93.94011009523305</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>46.58110078021219</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4179,10 +4179,10 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>30.75856006175758</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>93.94011009523297</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4191,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>93.94011009523297</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>82.74244897188116</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>93.94011009523297</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5017,55 +5017,55 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>115.1203774741731</v>
+        <v>63.04291809633431</v>
       </c>
       <c r="C11" t="n">
-        <v>115.1203774741731</v>
+        <v>63.04291809633431</v>
       </c>
       <c r="D11" t="n">
-        <v>115.1203774741731</v>
+        <v>63.04291809633431</v>
       </c>
       <c r="E11" t="n">
-        <v>115.1203774741731</v>
+        <v>63.04291809633431</v>
       </c>
       <c r="F11" t="n">
-        <v>115.1203774741731</v>
+        <v>63.04291809633431</v>
       </c>
       <c r="G11" t="n">
-        <v>115.1203774741731</v>
+        <v>63.04291809633431</v>
       </c>
       <c r="H11" t="n">
-        <v>63.04291809633435</v>
+        <v>4.626574419226906</v>
       </c>
       <c r="I11" t="n">
-        <v>4.626574419226909</v>
+        <v>4.626574419226906</v>
       </c>
       <c r="J11" t="n">
-        <v>4.626574419226909</v>
+        <v>4.626574419226906</v>
       </c>
       <c r="K11" t="n">
-        <v>4.626574419226909</v>
+        <v>4.626574419226906</v>
       </c>
       <c r="L11" t="n">
-        <v>4.626574419226909</v>
+        <v>61.88043285715987</v>
       </c>
       <c r="M11" t="n">
-        <v>61.8804328571599</v>
+        <v>90.24774413456461</v>
       </c>
       <c r="N11" t="n">
-        <v>119.1342912950929</v>
+        <v>123.6878765443816</v>
       </c>
       <c r="O11" t="n">
-        <v>176.3881497330259</v>
+        <v>141.9291840810071</v>
       </c>
       <c r="P11" t="n">
-        <v>231.3287209613454</v>
+        <v>174.0748625234123</v>
       </c>
       <c r="Q11" t="n">
-        <v>231.3287209613454</v>
+        <v>231.3287209613453</v>
       </c>
       <c r="R11" t="n">
-        <v>173.5367211512806</v>
+        <v>173.5367211512805</v>
       </c>
       <c r="S11" t="n">
         <v>115.1203774741731</v>
@@ -5074,19 +5074,19 @@
         <v>115.1203774741731</v>
       </c>
       <c r="U11" t="n">
-        <v>115.1203774741731</v>
+        <v>63.04291809633431</v>
       </c>
       <c r="V11" t="n">
-        <v>115.1203774741731</v>
+        <v>63.04291809633431</v>
       </c>
       <c r="W11" t="n">
-        <v>115.1203774741731</v>
+        <v>63.04291809633431</v>
       </c>
       <c r="X11" t="n">
-        <v>115.1203774741731</v>
+        <v>63.04291809633431</v>
       </c>
       <c r="Y11" t="n">
-        <v>115.1203774741731</v>
+        <v>63.04291809633431</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>121.4592617734418</v>
+        <v>4.626574419226906</v>
       </c>
       <c r="C12" t="n">
-        <v>63.04291809633435</v>
+        <v>4.626574419226906</v>
       </c>
       <c r="D12" t="n">
-        <v>4.626574419226909</v>
+        <v>4.626574419226906</v>
       </c>
       <c r="E12" t="n">
-        <v>4.626574419226909</v>
+        <v>4.626574419226906</v>
       </c>
       <c r="F12" t="n">
-        <v>4.626574419226909</v>
+        <v>4.626574419226906</v>
       </c>
       <c r="G12" t="n">
-        <v>4.626574419226909</v>
+        <v>4.626574419226906</v>
       </c>
       <c r="H12" t="n">
-        <v>4.626574419226909</v>
+        <v>4.626574419226906</v>
       </c>
       <c r="I12" t="n">
-        <v>4.626574419226909</v>
+        <v>4.626574419226906</v>
       </c>
       <c r="J12" t="n">
-        <v>4.626574419226909</v>
+        <v>4.626574419226906</v>
       </c>
       <c r="K12" t="n">
-        <v>4.626574419226909</v>
+        <v>4.626574419226906</v>
       </c>
       <c r="L12" t="n">
-        <v>37.10174324563852</v>
+        <v>55.53577650984164</v>
       </c>
       <c r="M12" t="n">
-        <v>94.35560168357151</v>
+        <v>112.7896349477746</v>
       </c>
       <c r="N12" t="n">
-        <v>151.6094601215045</v>
+        <v>170.0434933857076</v>
       </c>
       <c r="O12" t="n">
-        <v>208.8633185594375</v>
+        <v>214.7671277344803</v>
       </c>
       <c r="P12" t="n">
-        <v>231.3287209613454</v>
+        <v>231.3287209613453</v>
       </c>
       <c r="Q12" t="n">
-        <v>231.3287209613454</v>
+        <v>231.3287209613453</v>
       </c>
       <c r="R12" t="n">
-        <v>231.3287209613454</v>
+        <v>179.8756054505491</v>
       </c>
       <c r="S12" t="n">
-        <v>231.3287209613454</v>
+        <v>179.8756054505491</v>
       </c>
       <c r="T12" t="n">
-        <v>231.3287209613454</v>
+        <v>179.8756054505491</v>
       </c>
       <c r="U12" t="n">
-        <v>231.3287209613454</v>
+        <v>121.4592617734417</v>
       </c>
       <c r="V12" t="n">
-        <v>231.3287209613454</v>
+        <v>63.04291809633431</v>
       </c>
       <c r="W12" t="n">
-        <v>231.3287209613454</v>
+        <v>63.04291809633431</v>
       </c>
       <c r="X12" t="n">
-        <v>231.3287209613454</v>
+        <v>4.626574419226906</v>
       </c>
       <c r="Y12" t="n">
-        <v>179.8756054505492</v>
+        <v>4.626574419226906</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>226.9272224002585</v>
+        <v>83.42678101949657</v>
       </c>
       <c r="C13" t="n">
-        <v>226.9272224002585</v>
+        <v>83.42678101949657</v>
       </c>
       <c r="D13" t="n">
-        <v>226.9272224002585</v>
+        <v>25.01043734238917</v>
       </c>
       <c r="E13" t="n">
-        <v>226.9272224002585</v>
+        <v>4.626574419226906</v>
       </c>
       <c r="F13" t="n">
-        <v>226.9272224002585</v>
+        <v>4.626574419226906</v>
       </c>
       <c r="G13" t="n">
-        <v>168.5108787231511</v>
+        <v>4.626574419226906</v>
       </c>
       <c r="H13" t="n">
-        <v>110.0945350460436</v>
+        <v>4.626574419226906</v>
       </c>
       <c r="I13" t="n">
-        <v>51.6781913689362</v>
+        <v>4.626574419226906</v>
       </c>
       <c r="J13" t="n">
-        <v>4.626574419226909</v>
+        <v>4.626574419226906</v>
       </c>
       <c r="K13" t="n">
-        <v>58.68182397949109</v>
+        <v>58.68182397949106</v>
       </c>
       <c r="L13" t="n">
-        <v>115.9356824174241</v>
+        <v>115.935682417424</v>
       </c>
       <c r="M13" t="n">
-        <v>173.1895408553571</v>
+        <v>173.189540855357</v>
       </c>
       <c r="N13" t="n">
-        <v>174.0748625234124</v>
+        <v>230.44339929329</v>
       </c>
       <c r="O13" t="n">
-        <v>174.0748625234124</v>
+        <v>231.3287209613453</v>
       </c>
       <c r="P13" t="n">
-        <v>231.3287209613454</v>
+        <v>231.3287209613453</v>
       </c>
       <c r="Q13" t="n">
-        <v>231.3287209613454</v>
+        <v>200.2594683737114</v>
       </c>
       <c r="R13" t="n">
-        <v>231.3287209613454</v>
+        <v>200.2594683737114</v>
       </c>
       <c r="S13" t="n">
-        <v>231.3287209613454</v>
+        <v>200.2594683737114</v>
       </c>
       <c r="T13" t="n">
-        <v>231.3287209613454</v>
+        <v>200.2594683737114</v>
       </c>
       <c r="U13" t="n">
-        <v>231.3287209613454</v>
+        <v>141.843124696604</v>
       </c>
       <c r="V13" t="n">
-        <v>226.9272224002585</v>
+        <v>141.843124696604</v>
       </c>
       <c r="W13" t="n">
-        <v>226.9272224002585</v>
+        <v>83.42678101949657</v>
       </c>
       <c r="X13" t="n">
-        <v>226.9272224002585</v>
+        <v>83.42678101949657</v>
       </c>
       <c r="Y13" t="n">
-        <v>226.9272224002585</v>
+        <v>83.42678101949657</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>121.4592617734418</v>
+        <v>63.04291809633435</v>
       </c>
       <c r="C14" t="n">
-        <v>121.4592617734418</v>
+        <v>63.04291809633435</v>
       </c>
       <c r="D14" t="n">
-        <v>121.4592617734418</v>
+        <v>63.04291809633435</v>
       </c>
       <c r="E14" t="n">
-        <v>121.4592617734418</v>
+        <v>63.04291809633435</v>
       </c>
       <c r="F14" t="n">
         <v>63.04291809633435</v>
@@ -5293,37 +5293,37 @@
         <v>123.6878765443817</v>
       </c>
       <c r="O14" t="n">
-        <v>174.0748625234124</v>
+        <v>180.9417349823147</v>
       </c>
       <c r="P14" t="n">
-        <v>174.0748625234124</v>
+        <v>180.9417349823147</v>
       </c>
       <c r="Q14" t="n">
         <v>231.3287209613454</v>
       </c>
       <c r="R14" t="n">
-        <v>231.3287209613454</v>
+        <v>173.5367211512806</v>
       </c>
       <c r="S14" t="n">
-        <v>231.3287209613454</v>
+        <v>115.1203774741731</v>
       </c>
       <c r="T14" t="n">
-        <v>231.3287209613454</v>
+        <v>63.04291809633435</v>
       </c>
       <c r="U14" t="n">
-        <v>231.3287209613454</v>
+        <v>63.04291809633435</v>
       </c>
       <c r="V14" t="n">
-        <v>231.3287209613454</v>
+        <v>63.04291809633435</v>
       </c>
       <c r="W14" t="n">
-        <v>231.3287209613454</v>
+        <v>63.04291809633435</v>
       </c>
       <c r="X14" t="n">
-        <v>231.3287209613454</v>
+        <v>63.04291809633435</v>
       </c>
       <c r="Y14" t="n">
-        <v>172.912377284238</v>
+        <v>63.04291809633435</v>
       </c>
     </row>
     <row r="15">
@@ -5363,37 +5363,37 @@
         <v>4.626574419226909</v>
       </c>
       <c r="L15" t="n">
-        <v>37.10174324563852</v>
+        <v>55.53577650984164</v>
       </c>
       <c r="M15" t="n">
-        <v>94.35560168357151</v>
+        <v>112.7896349477746</v>
       </c>
       <c r="N15" t="n">
-        <v>151.6094601215045</v>
+        <v>170.0434933857076</v>
       </c>
       <c r="O15" t="n">
-        <v>196.3330944702772</v>
+        <v>214.7671277344804</v>
       </c>
       <c r="P15" t="n">
-        <v>212.8946876971423</v>
+        <v>231.3287209613454</v>
       </c>
       <c r="Q15" t="n">
         <v>231.3287209613454</v>
       </c>
       <c r="R15" t="n">
-        <v>179.8756054505492</v>
+        <v>179.6539963687709</v>
       </c>
       <c r="S15" t="n">
-        <v>121.4592617734418</v>
+        <v>121.2376526916635</v>
       </c>
       <c r="T15" t="n">
+        <v>121.2376526916635</v>
+      </c>
+      <c r="U15" t="n">
+        <v>121.2376526916635</v>
+      </c>
+      <c r="V15" t="n">
         <v>63.04291809633435</v>
-      </c>
-      <c r="U15" t="n">
-        <v>63.04291809633435</v>
-      </c>
-      <c r="V15" t="n">
-        <v>4.626574419226909</v>
       </c>
       <c r="W15" t="n">
         <v>4.626574419226909</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>141.8431246966041</v>
+        <v>63.04291809633435</v>
       </c>
       <c r="C16" t="n">
-        <v>141.8431246966041</v>
+        <v>63.04291809633435</v>
       </c>
       <c r="D16" t="n">
-        <v>141.8431246966041</v>
+        <v>63.04291809633435</v>
       </c>
       <c r="E16" t="n">
-        <v>141.8431246966041</v>
+        <v>63.04291809633435</v>
       </c>
       <c r="F16" t="n">
-        <v>141.8431246966041</v>
+        <v>63.04291809633435</v>
       </c>
       <c r="G16" t="n">
-        <v>83.42678101949666</v>
+        <v>63.04291809633435</v>
       </c>
       <c r="H16" t="n">
         <v>63.04291809633435</v>
@@ -5439,16 +5439,16 @@
         <v>4.626574419226909</v>
       </c>
       <c r="K16" t="n">
-        <v>58.68182397949109</v>
+        <v>4.626574419226909</v>
       </c>
       <c r="L16" t="n">
-        <v>115.9356824174241</v>
+        <v>61.8804328571599</v>
       </c>
       <c r="M16" t="n">
-        <v>115.9356824174241</v>
+        <v>119.1342912950929</v>
       </c>
       <c r="N16" t="n">
-        <v>116.8210040854794</v>
+        <v>174.0748625234124</v>
       </c>
       <c r="O16" t="n">
         <v>174.0748625234124</v>
@@ -5457,31 +5457,31 @@
         <v>231.3287209613454</v>
       </c>
       <c r="Q16" t="n">
-        <v>200.2594683737115</v>
+        <v>231.3287209613454</v>
       </c>
       <c r="R16" t="n">
-        <v>141.8431246966041</v>
+        <v>231.3287209613454</v>
       </c>
       <c r="S16" t="n">
-        <v>141.8431246966041</v>
+        <v>231.3287209613454</v>
       </c>
       <c r="T16" t="n">
-        <v>141.8431246966041</v>
+        <v>172.912377284238</v>
       </c>
       <c r="U16" t="n">
-        <v>141.8431246966041</v>
+        <v>114.4960336071306</v>
       </c>
       <c r="V16" t="n">
-        <v>141.8431246966041</v>
+        <v>63.04291809633435</v>
       </c>
       <c r="W16" t="n">
-        <v>141.8431246966041</v>
+        <v>63.04291809633435</v>
       </c>
       <c r="X16" t="n">
-        <v>141.8431246966041</v>
+        <v>63.04291809633435</v>
       </c>
       <c r="Y16" t="n">
-        <v>141.8431246966041</v>
+        <v>63.04291809633435</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>221.0044017571517</v>
+        <v>88.54875270480586</v>
       </c>
       <c r="C17" t="n">
-        <v>221.0044017571517</v>
+        <v>80.57701026226964</v>
       </c>
       <c r="D17" t="n">
-        <v>221.0044017571517</v>
+        <v>80.57701026226964</v>
       </c>
       <c r="E17" t="n">
-        <v>155.2406595045506</v>
+        <v>80.57701026226964</v>
       </c>
       <c r="F17" t="n">
-        <v>80.57701026226964</v>
+        <v>5.913361019988654</v>
       </c>
       <c r="G17" t="n">
         <v>5.913361019988654</v>
@@ -5515,52 +5515,52 @@
         <v>5.913361019988654</v>
       </c>
       <c r="J17" t="n">
-        <v>5.913361019988654</v>
+        <v>79.09120364234825</v>
       </c>
       <c r="K17" t="n">
-        <v>5.913361019988654</v>
+        <v>79.09120364234825</v>
       </c>
       <c r="L17" t="n">
-        <v>5.913361019988654</v>
+        <v>131.0710582180879</v>
       </c>
       <c r="M17" t="n">
-        <v>34.28067229739347</v>
+        <v>204.2489008404475</v>
       </c>
       <c r="N17" t="n">
-        <v>107.4585149197531</v>
+        <v>277.4267434628071</v>
       </c>
       <c r="O17" t="n">
-        <v>180.6363575421126</v>
+        <v>295.6680509994327</v>
       </c>
       <c r="P17" t="n">
-        <v>253.8142001644723</v>
+        <v>295.6680509994327</v>
       </c>
       <c r="Q17" t="n">
         <v>295.6680509994327</v>
       </c>
       <c r="R17" t="n">
-        <v>295.6680509994327</v>
+        <v>237.8760511893678</v>
       </c>
       <c r="S17" t="n">
-        <v>295.6680509994327</v>
+        <v>163.2124019470868</v>
       </c>
       <c r="T17" t="n">
-        <v>295.6680509994327</v>
+        <v>163.2124019470868</v>
       </c>
       <c r="U17" t="n">
-        <v>221.0044017571517</v>
+        <v>163.2124019470868</v>
       </c>
       <c r="V17" t="n">
-        <v>221.0044017571517</v>
+        <v>88.54875270480586</v>
       </c>
       <c r="W17" t="n">
-        <v>221.0044017571517</v>
+        <v>88.54875270480586</v>
       </c>
       <c r="X17" t="n">
-        <v>221.0044017571517</v>
+        <v>88.54875270480586</v>
       </c>
       <c r="Y17" t="n">
-        <v>221.0044017571517</v>
+        <v>88.54875270480586</v>
       </c>
     </row>
     <row r="18">
@@ -5570,10 +5570,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5.913361019988654</v>
+        <v>155.2406595045506</v>
       </c>
       <c r="C18" t="n">
-        <v>5.913361019988654</v>
+        <v>80.57701026226964</v>
       </c>
       <c r="D18" t="n">
         <v>5.913361019988654</v>
@@ -5603,13 +5603,13 @@
         <v>38.38852984640026</v>
       </c>
       <c r="M18" t="n">
-        <v>104.5887314059407</v>
+        <v>111.5663724687599</v>
       </c>
       <c r="N18" t="n">
-        <v>177.7665740283003</v>
+        <v>184.7442150911194</v>
       </c>
       <c r="O18" t="n">
-        <v>222.4902083770731</v>
+        <v>229.4678494398922</v>
       </c>
       <c r="P18" t="n">
         <v>295.6680509994327</v>
@@ -5618,28 +5618,28 @@
         <v>295.6680509994327</v>
       </c>
       <c r="R18" t="n">
-        <v>243.9933264068582</v>
+        <v>295.6680509994327</v>
       </c>
       <c r="S18" t="n">
-        <v>243.9933264068582</v>
+        <v>295.6680509994327</v>
       </c>
       <c r="T18" t="n">
-        <v>169.3296771645772</v>
+        <v>229.9043087468316</v>
       </c>
       <c r="U18" t="n">
-        <v>169.3296771645772</v>
+        <v>229.9043087468316</v>
       </c>
       <c r="V18" t="n">
-        <v>94.66602792229618</v>
+        <v>229.9043087468316</v>
       </c>
       <c r="W18" t="n">
-        <v>20.0023786800152</v>
+        <v>229.9043087468316</v>
       </c>
       <c r="X18" t="n">
-        <v>5.913361019988654</v>
+        <v>155.2406595045506</v>
       </c>
       <c r="Y18" t="n">
-        <v>5.913361019988654</v>
+        <v>155.2406595045506</v>
       </c>
     </row>
     <row r="19">
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>5.913361019988654</v>
+        <v>80.57701026226964</v>
       </c>
       <c r="C19" t="n">
-        <v>5.913361019988654</v>
+        <v>80.57701026226964</v>
       </c>
       <c r="D19" t="n">
-        <v>5.913361019988654</v>
+        <v>80.57701026226964</v>
       </c>
       <c r="E19" t="n">
-        <v>5.913361019988654</v>
+        <v>80.57701026226964</v>
       </c>
       <c r="F19" t="n">
         <v>5.913361019988654</v>
@@ -5682,10 +5682,10 @@
         <v>133.1464532026124</v>
       </c>
       <c r="M19" t="n">
-        <v>206.324295824972</v>
+        <v>149.3123657547135</v>
       </c>
       <c r="N19" t="n">
-        <v>222.4902083770731</v>
+        <v>149.3123657547135</v>
       </c>
       <c r="O19" t="n">
         <v>222.4902083770731</v>
@@ -5694,31 +5694,31 @@
         <v>295.6680509994327</v>
       </c>
       <c r="Q19" t="n">
-        <v>264.5987984117988</v>
+        <v>295.6680509994327</v>
       </c>
       <c r="R19" t="n">
-        <v>189.9351491695178</v>
+        <v>295.6680509994327</v>
       </c>
       <c r="S19" t="n">
-        <v>115.2714999272368</v>
+        <v>295.6680509994327</v>
       </c>
       <c r="T19" t="n">
-        <v>40.60785068495582</v>
+        <v>295.6680509994327</v>
       </c>
       <c r="U19" t="n">
-        <v>5.913361019988654</v>
+        <v>295.6680509994327</v>
       </c>
       <c r="V19" t="n">
-        <v>5.913361019988654</v>
+        <v>221.0044017571517</v>
       </c>
       <c r="W19" t="n">
-        <v>5.913361019988654</v>
+        <v>155.2406595045506</v>
       </c>
       <c r="X19" t="n">
-        <v>5.913361019988654</v>
+        <v>80.57701026226964</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.913361019988654</v>
+        <v>80.57701026226964</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>295.6680509994327</v>
+        <v>155.2406595045506</v>
       </c>
       <c r="C20" t="n">
-        <v>295.6680509994327</v>
+        <v>80.57701026226964</v>
       </c>
       <c r="D20" t="n">
-        <v>295.6680509994327</v>
+        <v>80.57701026226964</v>
       </c>
       <c r="E20" t="n">
-        <v>221.0044017571517</v>
+        <v>80.57701026226964</v>
       </c>
       <c r="F20" t="n">
-        <v>146.3407525148707</v>
+        <v>80.57701026226964</v>
       </c>
       <c r="G20" t="n">
-        <v>71.67710327258972</v>
+        <v>80.57701026226964</v>
       </c>
       <c r="H20" t="n">
         <v>5.913361019988654</v>
@@ -5752,52 +5752,52 @@
         <v>5.913361019988654</v>
       </c>
       <c r="J20" t="n">
+        <v>5.913361019988654</v>
+      </c>
+      <c r="K20" t="n">
+        <v>5.913361019988654</v>
+      </c>
+      <c r="L20" t="n">
+        <v>5.913361019988654</v>
+      </c>
+      <c r="M20" t="n">
         <v>79.09120364234825</v>
       </c>
-      <c r="K20" t="n">
-        <v>79.09120364234825</v>
-      </c>
-      <c r="L20" t="n">
-        <v>79.09120364234825</v>
-      </c>
-      <c r="M20" t="n">
-        <v>107.4585149197531</v>
-      </c>
       <c r="N20" t="n">
-        <v>180.6363575421126</v>
+        <v>152.2690462647078</v>
       </c>
       <c r="O20" t="n">
-        <v>222.4902083770731</v>
+        <v>225.4468888870674</v>
       </c>
       <c r="P20" t="n">
-        <v>222.4902083770731</v>
+        <v>295.6680509994327</v>
       </c>
       <c r="Q20" t="n">
         <v>295.6680509994327</v>
       </c>
       <c r="R20" t="n">
-        <v>295.6680509994327</v>
+        <v>237.8760511893678</v>
       </c>
       <c r="S20" t="n">
-        <v>295.6680509994327</v>
+        <v>237.8760511893678</v>
       </c>
       <c r="T20" t="n">
-        <v>295.6680509994327</v>
+        <v>237.8760511893678</v>
       </c>
       <c r="U20" t="n">
-        <v>295.6680509994327</v>
+        <v>237.8760511893678</v>
       </c>
       <c r="V20" t="n">
-        <v>295.6680509994327</v>
+        <v>237.8760511893678</v>
       </c>
       <c r="W20" t="n">
-        <v>295.6680509994327</v>
+        <v>237.8760511893678</v>
       </c>
       <c r="X20" t="n">
-        <v>295.6680509994327</v>
+        <v>229.9043087468316</v>
       </c>
       <c r="Y20" t="n">
-        <v>295.6680509994327</v>
+        <v>229.9043087468316</v>
       </c>
     </row>
     <row r="21">
@@ -5807,7 +5807,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5.913361019988654</v>
+        <v>20.0023786800152</v>
       </c>
       <c r="C21" t="n">
         <v>5.913361019988654</v>
@@ -5837,16 +5837,16 @@
         <v>5.913361019988654</v>
       </c>
       <c r="L21" t="n">
-        <v>38.38852984640026</v>
+        <v>79.09120364234825</v>
       </c>
       <c r="M21" t="n">
-        <v>104.5887314059407</v>
+        <v>152.2690462647078</v>
       </c>
       <c r="N21" t="n">
-        <v>177.7665740283003</v>
+        <v>225.4468888870674</v>
       </c>
       <c r="O21" t="n">
-        <v>222.4902083770731</v>
+        <v>279.1064577725676</v>
       </c>
       <c r="P21" t="n">
         <v>295.6680509994327</v>
@@ -5855,28 +5855,28 @@
         <v>295.6680509994327</v>
       </c>
       <c r="R21" t="n">
-        <v>295.6680509994327</v>
+        <v>243.9933264068582</v>
       </c>
       <c r="S21" t="n">
-        <v>221.0044017571517</v>
+        <v>243.9933264068582</v>
       </c>
       <c r="T21" t="n">
-        <v>146.3407525148707</v>
+        <v>243.9933264068582</v>
       </c>
       <c r="U21" t="n">
-        <v>146.3407525148707</v>
+        <v>169.3296771645772</v>
       </c>
       <c r="V21" t="n">
-        <v>71.67710327258972</v>
+        <v>94.66602792229618</v>
       </c>
       <c r="W21" t="n">
-        <v>71.67710327258972</v>
+        <v>94.66602792229618</v>
       </c>
       <c r="X21" t="n">
-        <v>71.67710327258972</v>
+        <v>20.0023786800152</v>
       </c>
       <c r="Y21" t="n">
-        <v>71.67710327258972</v>
+        <v>20.0023786800152</v>
       </c>
     </row>
     <row r="22">
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>80.57701026226964</v>
+        <v>71.67710327258972</v>
       </c>
       <c r="C22" t="n">
-        <v>80.57701026226964</v>
+        <v>71.67710327258972</v>
       </c>
       <c r="D22" t="n">
-        <v>80.57701026226964</v>
+        <v>71.67710327258972</v>
       </c>
       <c r="E22" t="n">
-        <v>80.57701026226964</v>
+        <v>71.67710327258972</v>
       </c>
       <c r="F22" t="n">
-        <v>80.57701026226964</v>
+        <v>71.67710327258972</v>
       </c>
       <c r="G22" t="n">
-        <v>80.57701026226964</v>
+        <v>5.913361019988654</v>
       </c>
       <c r="H22" t="n">
         <v>5.913361019988654</v>
@@ -5913,19 +5913,19 @@
         <v>5.913361019988654</v>
       </c>
       <c r="K22" t="n">
-        <v>5.913361019988654</v>
+        <v>59.96861058025283</v>
       </c>
       <c r="L22" t="n">
-        <v>79.09120364234825</v>
+        <v>59.96861058025283</v>
       </c>
       <c r="M22" t="n">
-        <v>79.09120364234825</v>
+        <v>133.1464532026124</v>
       </c>
       <c r="N22" t="n">
-        <v>149.3123657547135</v>
+        <v>206.324295824972</v>
       </c>
       <c r="O22" t="n">
-        <v>222.4902083770731</v>
+        <v>279.5021384473316</v>
       </c>
       <c r="P22" t="n">
         <v>295.6680509994327</v>
@@ -5934,28 +5934,28 @@
         <v>295.6680509994327</v>
       </c>
       <c r="R22" t="n">
-        <v>295.6680509994327</v>
+        <v>221.0044017571517</v>
       </c>
       <c r="S22" t="n">
-        <v>295.6680509994327</v>
+        <v>221.0044017571517</v>
       </c>
       <c r="T22" t="n">
-        <v>295.6680509994327</v>
+        <v>146.3407525148707</v>
       </c>
       <c r="U22" t="n">
-        <v>229.9043087468316</v>
+        <v>146.3407525148707</v>
       </c>
       <c r="V22" t="n">
-        <v>229.9043087468316</v>
+        <v>146.3407525148707</v>
       </c>
       <c r="W22" t="n">
-        <v>229.9043087468316</v>
+        <v>71.67710327258972</v>
       </c>
       <c r="X22" t="n">
-        <v>229.9043087468316</v>
+        <v>71.67710327258972</v>
       </c>
       <c r="Y22" t="n">
-        <v>155.2406595045506</v>
+        <v>71.67710327258972</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>501.8758420418886</v>
+        <v>522.0865178430349</v>
       </c>
       <c r="C23" t="n">
-        <v>501.8758420418886</v>
+        <v>352.533868504559</v>
       </c>
       <c r="D23" t="n">
-        <v>501.8758420418886</v>
+        <v>352.533868504559</v>
       </c>
       <c r="E23" t="n">
-        <v>501.8758420418886</v>
+        <v>352.533868504559</v>
       </c>
       <c r="F23" t="n">
-        <v>501.8758420418886</v>
+        <v>182.9812191660832</v>
       </c>
       <c r="G23" t="n">
-        <v>338.1431340706312</v>
+        <v>13.42856982760729</v>
       </c>
       <c r="H23" t="n">
-        <v>168.5904847321553</v>
+        <v>13.42856982760729</v>
       </c>
       <c r="I23" t="n">
         <v>13.42856982760729</v>
@@ -5992,22 +5992,22 @@
         <v>13.42856982760729</v>
       </c>
       <c r="K23" t="n">
-        <v>144.6611693593995</v>
+        <v>154.6515289938182</v>
       </c>
       <c r="L23" t="n">
-        <v>310.8397209760396</v>
+        <v>320.8300806104584</v>
       </c>
       <c r="M23" t="n">
-        <v>339.2070322534445</v>
+        <v>487.0086322270986</v>
       </c>
       <c r="N23" t="n">
-        <v>505.3855838700846</v>
+        <v>653.1871838437388</v>
       </c>
       <c r="O23" t="n">
-        <v>523.6268914067102</v>
+        <v>671.4284913803644</v>
       </c>
       <c r="P23" t="n">
-        <v>523.6268914067102</v>
+        <v>671.4284913803644</v>
       </c>
       <c r="Q23" t="n">
         <v>671.4284913803644</v>
@@ -6028,13 +6028,13 @@
         <v>671.4284913803644</v>
       </c>
       <c r="W23" t="n">
-        <v>501.8758420418886</v>
+        <v>671.4284913803644</v>
       </c>
       <c r="X23" t="n">
-        <v>501.8758420418886</v>
+        <v>671.4284913803644</v>
       </c>
       <c r="Y23" t="n">
-        <v>501.8758420418886</v>
+        <v>522.0865178430349</v>
       </c>
     </row>
     <row r="24">
@@ -6044,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>501.8758420418886</v>
+        <v>172.6660248330628</v>
       </c>
       <c r="C24" t="n">
-        <v>332.3231927034127</v>
+        <v>172.6660248330628</v>
       </c>
       <c r="D24" t="n">
-        <v>183.3887830421614</v>
+        <v>172.6660248330628</v>
       </c>
       <c r="E24" t="n">
-        <v>183.3887830421614</v>
+        <v>13.42856982760729</v>
       </c>
       <c r="F24" t="n">
-        <v>36.85422506904641</v>
+        <v>13.42856982760729</v>
       </c>
       <c r="G24" t="n">
-        <v>36.85422506904641</v>
+        <v>13.42856982760729</v>
       </c>
       <c r="H24" t="n">
-        <v>36.85422506904641</v>
+        <v>13.42856982760729</v>
       </c>
       <c r="I24" t="n">
         <v>13.42856982760729</v>
       </c>
       <c r="J24" t="n">
-        <v>86.50626105090369</v>
+        <v>13.42856982760729</v>
       </c>
       <c r="K24" t="n">
-        <v>86.50626105090369</v>
+        <v>13.42856982760729</v>
       </c>
       <c r="L24" t="n">
-        <v>252.6848126675439</v>
+        <v>179.6071214442475</v>
       </c>
       <c r="M24" t="n">
-        <v>309.9386711054769</v>
+        <v>236.8609798821805</v>
       </c>
       <c r="N24" t="n">
-        <v>383.1165137278365</v>
+        <v>310.0388225045401</v>
       </c>
       <c r="O24" t="n">
-        <v>549.2950653444767</v>
+        <v>476.2173741211802</v>
       </c>
       <c r="P24" t="n">
-        <v>671.4284913803644</v>
+        <v>505.2499397637242</v>
       </c>
       <c r="Q24" t="n">
         <v>671.4284913803644</v>
@@ -6095,25 +6095,25 @@
         <v>671.4284913803644</v>
       </c>
       <c r="S24" t="n">
-        <v>671.4284913803644</v>
+        <v>512.8183309620714</v>
       </c>
       <c r="T24" t="n">
-        <v>671.4284913803644</v>
+        <v>343.2656816235955</v>
       </c>
       <c r="U24" t="n">
-        <v>671.4284913803644</v>
+        <v>173.7130322851197</v>
       </c>
       <c r="V24" t="n">
-        <v>501.8758420418886</v>
+        <v>172.6660248330628</v>
       </c>
       <c r="W24" t="n">
-        <v>501.8758420418886</v>
+        <v>172.6660248330628</v>
       </c>
       <c r="X24" t="n">
-        <v>501.8758420418886</v>
+        <v>172.6660248330628</v>
       </c>
       <c r="Y24" t="n">
-        <v>501.8758420418886</v>
+        <v>172.6660248330628</v>
       </c>
     </row>
     <row r="25">
@@ -6126,31 +6126,31 @@
         <v>332.3231927034127</v>
       </c>
       <c r="C25" t="n">
-        <v>332.3231927034127</v>
+        <v>163.545209239943</v>
       </c>
       <c r="D25" t="n">
-        <v>332.3231927034127</v>
+        <v>13.42856982760729</v>
       </c>
       <c r="E25" t="n">
-        <v>332.3231927034127</v>
+        <v>13.42856982760729</v>
       </c>
       <c r="F25" t="n">
-        <v>332.3231927034127</v>
+        <v>13.42856982760729</v>
       </c>
       <c r="G25" t="n">
-        <v>163.3036598743216</v>
+        <v>13.42856982760733</v>
       </c>
       <c r="H25" t="n">
-        <v>13.42856982760729</v>
+        <v>13.42856982760733</v>
       </c>
       <c r="I25" t="n">
-        <v>13.42856982760729</v>
+        <v>13.42856982760733</v>
       </c>
       <c r="J25" t="n">
-        <v>13.42856982760729</v>
+        <v>13.42856982760733</v>
       </c>
       <c r="K25" t="n">
-        <v>67.48381938787145</v>
+        <v>67.48381938787151</v>
       </c>
       <c r="L25" t="n">
         <v>192.1823628569181</v>
@@ -6180,13 +6180,13 @@
         <v>671.4284913803644</v>
       </c>
       <c r="U25" t="n">
-        <v>671.4284913803644</v>
+        <v>501.8758420418886</v>
       </c>
       <c r="V25" t="n">
-        <v>671.4284913803644</v>
+        <v>332.3231927034127</v>
       </c>
       <c r="W25" t="n">
-        <v>501.8758420418886</v>
+        <v>332.3231927034127</v>
       </c>
       <c r="X25" t="n">
         <v>332.3231927034127</v>
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>182.9812191660832</v>
+        <v>444.0838422318237</v>
       </c>
       <c r="C26" t="n">
-        <v>182.9812191660832</v>
+        <v>444.0838422318237</v>
       </c>
       <c r="D26" t="n">
-        <v>182.9812191660832</v>
+        <v>444.0838422318237</v>
       </c>
       <c r="E26" t="n">
-        <v>182.9812191660832</v>
+        <v>444.0838422318237</v>
       </c>
       <c r="F26" t="n">
-        <v>13.42856982760729</v>
+        <v>274.5311928933478</v>
       </c>
       <c r="G26" t="n">
-        <v>13.42856982760729</v>
+        <v>104.9785435548719</v>
       </c>
       <c r="H26" t="n">
-        <v>13.42856982760729</v>
+        <v>104.9785435548719</v>
       </c>
       <c r="I26" t="n">
         <v>13.42856982760729</v>
       </c>
       <c r="J26" t="n">
-        <v>125.5370972396277</v>
+        <v>13.42856982760729</v>
       </c>
       <c r="K26" t="n">
-        <v>125.5370972396277</v>
+        <v>13.42856982760729</v>
       </c>
       <c r="L26" t="n">
-        <v>172.8928365304438</v>
+        <v>179.6071214442475</v>
       </c>
       <c r="M26" t="n">
         <v>339.071388147084</v>
@@ -6250,28 +6250,28 @@
         <v>671.4284913803644</v>
       </c>
       <c r="R26" t="n">
-        <v>671.4284913803644</v>
+        <v>613.6364915702995</v>
       </c>
       <c r="S26" t="n">
-        <v>671.4284913803644</v>
+        <v>613.6364915702995</v>
       </c>
       <c r="T26" t="n">
-        <v>522.0865178430349</v>
+        <v>444.0838422318237</v>
       </c>
       <c r="U26" t="n">
-        <v>352.533868504559</v>
+        <v>444.0838422318237</v>
       </c>
       <c r="V26" t="n">
-        <v>182.9812191660832</v>
+        <v>444.0838422318237</v>
       </c>
       <c r="W26" t="n">
-        <v>182.9812191660832</v>
+        <v>444.0838422318237</v>
       </c>
       <c r="X26" t="n">
-        <v>182.9812191660832</v>
+        <v>444.0838422318237</v>
       </c>
       <c r="Y26" t="n">
-        <v>182.9812191660832</v>
+        <v>444.0838422318237</v>
       </c>
     </row>
     <row r="27">
@@ -6281,46 +6281,46 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>13.42856982760729</v>
+        <v>333.6605050218205</v>
       </c>
       <c r="C27" t="n">
-        <v>13.42856982760729</v>
+        <v>333.6605050218205</v>
       </c>
       <c r="D27" t="n">
-        <v>13.42856982760729</v>
+        <v>184.7260953605693</v>
       </c>
       <c r="E27" t="n">
-        <v>13.42856982760729</v>
+        <v>184.7260953605693</v>
       </c>
       <c r="F27" t="n">
-        <v>13.42856982760729</v>
+        <v>184.7260953605693</v>
       </c>
       <c r="G27" t="n">
-        <v>13.42856982760729</v>
+        <v>76.2815884796245</v>
       </c>
       <c r="H27" t="n">
-        <v>13.42856982760729</v>
+        <v>76.2815884796245</v>
       </c>
       <c r="I27" t="n">
         <v>13.42856982760729</v>
       </c>
       <c r="J27" t="n">
-        <v>86.50626105090369</v>
+        <v>13.42856982760729</v>
       </c>
       <c r="K27" t="n">
-        <v>86.50626105090369</v>
+        <v>13.42856982760729</v>
       </c>
       <c r="L27" t="n">
-        <v>252.6848126675439</v>
+        <v>179.6071214442475</v>
       </c>
       <c r="M27" t="n">
-        <v>415.5105039144996</v>
+        <v>294.3477537983113</v>
       </c>
       <c r="N27" t="n">
-        <v>488.6883465368592</v>
+        <v>460.5263054149515</v>
       </c>
       <c r="O27" t="n">
-        <v>654.8668981534994</v>
+        <v>505.2499397637242</v>
       </c>
       <c r="P27" t="n">
         <v>671.4284913803644</v>
@@ -6332,25 +6332,25 @@
         <v>671.4284913803644</v>
       </c>
       <c r="S27" t="n">
-        <v>512.8183309620714</v>
+        <v>671.4284913803644</v>
       </c>
       <c r="T27" t="n">
-        <v>512.8183309620714</v>
+        <v>501.8758420418886</v>
       </c>
       <c r="U27" t="n">
-        <v>343.2656816235955</v>
+        <v>501.8758420418886</v>
       </c>
       <c r="V27" t="n">
-        <v>182.9812191660832</v>
+        <v>501.8758420418886</v>
       </c>
       <c r="W27" t="n">
-        <v>13.42856982760729</v>
+        <v>501.8758420418886</v>
       </c>
       <c r="X27" t="n">
-        <v>13.42856982760729</v>
+        <v>501.8758420418886</v>
       </c>
       <c r="Y27" t="n">
-        <v>13.42856982760729</v>
+        <v>501.8758420418886</v>
       </c>
     </row>
     <row r="28">
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>13.42856982760729</v>
+        <v>183.289286151444</v>
       </c>
       <c r="C28" t="n">
-        <v>13.42856982760729</v>
+        <v>183.289286151444</v>
       </c>
       <c r="D28" t="n">
-        <v>13.42856982760729</v>
+        <v>183.289286151444</v>
       </c>
       <c r="E28" t="n">
-        <v>13.42856982760729</v>
+        <v>183.289286151444</v>
       </c>
       <c r="F28" t="n">
-        <v>13.42856982760729</v>
+        <v>183.289286151444</v>
       </c>
       <c r="G28" t="n">
-        <v>13.42856982760729</v>
+        <v>14.2697533223529</v>
       </c>
       <c r="H28" t="n">
-        <v>13.42856982760729</v>
+        <v>14.2697533223529</v>
       </c>
       <c r="I28" t="n">
-        <v>13.42856982760729</v>
+        <v>14.2697533223529</v>
       </c>
       <c r="J28" t="n">
         <v>13.42856982760729</v>
@@ -6396,40 +6396,40 @@
         <v>334.0486160136001</v>
       </c>
       <c r="N28" t="n">
-        <v>477.9762231787362</v>
+        <v>477.9762231787361</v>
       </c>
       <c r="O28" t="n">
-        <v>594.9003682395139</v>
+        <v>594.9003682395138</v>
       </c>
       <c r="P28" t="n">
-        <v>671.4284913803644</v>
+        <v>671.4284913803643</v>
       </c>
       <c r="Q28" t="n">
-        <v>671.4284913803644</v>
+        <v>671.4284913803643</v>
       </c>
       <c r="R28" t="n">
-        <v>671.4284913803644</v>
+        <v>522.3945848283958</v>
       </c>
       <c r="S28" t="n">
-        <v>501.8758420418886</v>
+        <v>522.3945848283958</v>
       </c>
       <c r="T28" t="n">
-        <v>501.8758420418886</v>
+        <v>352.8419354899199</v>
       </c>
       <c r="U28" t="n">
-        <v>332.3231927034127</v>
+        <v>352.8419354899199</v>
       </c>
       <c r="V28" t="n">
-        <v>162.7705433649368</v>
+        <v>183.289286151444</v>
       </c>
       <c r="W28" t="n">
-        <v>13.42856982760729</v>
+        <v>183.289286151444</v>
       </c>
       <c r="X28" t="n">
-        <v>13.42856982760729</v>
+        <v>183.289286151444</v>
       </c>
       <c r="Y28" t="n">
-        <v>13.42856982760729</v>
+        <v>183.289286151444</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>332.3231927034127</v>
+        <v>104.9785435548719</v>
       </c>
       <c r="C29" t="n">
-        <v>332.3231927034127</v>
+        <v>104.9785435548719</v>
       </c>
       <c r="D29" t="n">
-        <v>332.3231927034127</v>
+        <v>104.9785435548719</v>
       </c>
       <c r="E29" t="n">
-        <v>332.3231927034127</v>
+        <v>104.9785435548719</v>
       </c>
       <c r="F29" t="n">
-        <v>332.3231927034127</v>
+        <v>13.42856982760729</v>
       </c>
       <c r="G29" t="n">
-        <v>162.7705433649368</v>
+        <v>13.42856982760729</v>
       </c>
       <c r="H29" t="n">
         <v>13.42856982760729</v>
@@ -6469,16 +6469,16 @@
         <v>13.42856982760729</v>
       </c>
       <c r="L29" t="n">
-        <v>13.42856982760729</v>
+        <v>25.09123655678962</v>
       </c>
       <c r="M29" t="n">
-        <v>179.6071214442475</v>
+        <v>191.2697881734298</v>
       </c>
       <c r="N29" t="n">
-        <v>339.2070322534444</v>
+        <v>357.44833979007</v>
       </c>
       <c r="O29" t="n">
-        <v>357.44833979007</v>
+        <v>523.6268914067102</v>
       </c>
       <c r="P29" t="n">
         <v>523.6268914067102</v>
@@ -6487,28 +6487,28 @@
         <v>671.4284913803644</v>
       </c>
       <c r="R29" t="n">
-        <v>671.4284913803644</v>
+        <v>613.6364915702995</v>
       </c>
       <c r="S29" t="n">
-        <v>671.4284913803644</v>
+        <v>444.0838422318237</v>
       </c>
       <c r="T29" t="n">
-        <v>671.4284913803644</v>
+        <v>444.0838422318237</v>
       </c>
       <c r="U29" t="n">
-        <v>671.4284913803644</v>
+        <v>274.5311928933478</v>
       </c>
       <c r="V29" t="n">
-        <v>671.4284913803644</v>
+        <v>274.5311928933478</v>
       </c>
       <c r="W29" t="n">
-        <v>501.8758420418886</v>
+        <v>274.5311928933478</v>
       </c>
       <c r="X29" t="n">
-        <v>501.8758420418886</v>
+        <v>104.9785435548719</v>
       </c>
       <c r="Y29" t="n">
-        <v>501.8758420418886</v>
+        <v>104.9785435548719</v>
       </c>
     </row>
     <row r="30">
@@ -6545,22 +6545,22 @@
         <v>86.50626105090369</v>
       </c>
       <c r="K30" t="n">
-        <v>86.50626105090369</v>
+        <v>172.133149122675</v>
       </c>
       <c r="L30" t="n">
-        <v>252.6848126675439</v>
+        <v>204.6083179490866</v>
       </c>
       <c r="M30" t="n">
-        <v>309.9386711054769</v>
+        <v>370.7868695657268</v>
       </c>
       <c r="N30" t="n">
-        <v>383.1165137278365</v>
+        <v>443.9647121880864</v>
       </c>
       <c r="O30" t="n">
-        <v>549.2950653444767</v>
+        <v>488.6883465368592</v>
       </c>
       <c r="P30" t="n">
-        <v>671.4284913803644</v>
+        <v>505.2499397637242</v>
       </c>
       <c r="Q30" t="n">
         <v>671.4284913803644</v>
@@ -6569,25 +6569,25 @@
         <v>671.4284913803644</v>
       </c>
       <c r="S30" t="n">
-        <v>512.8183309620714</v>
+        <v>671.4284913803644</v>
       </c>
       <c r="T30" t="n">
-        <v>343.2656816235955</v>
+        <v>671.4284913803644</v>
       </c>
       <c r="U30" t="n">
-        <v>343.2656816235955</v>
+        <v>522.0865178430349</v>
       </c>
       <c r="V30" t="n">
-        <v>173.7130322851197</v>
+        <v>352.533868504559</v>
       </c>
       <c r="W30" t="n">
-        <v>173.7130322851197</v>
+        <v>352.533868504559</v>
       </c>
       <c r="X30" t="n">
-        <v>173.7130322851197</v>
+        <v>182.9812191660832</v>
       </c>
       <c r="Y30" t="n">
-        <v>173.7130322851197</v>
+        <v>13.42856982760729</v>
       </c>
     </row>
     <row r="31">
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>182.4481026566984</v>
+        <v>13.42856982760729</v>
       </c>
       <c r="C31" t="n">
-        <v>182.4481026566984</v>
+        <v>13.42856982760729</v>
       </c>
       <c r="D31" t="n">
-        <v>182.4481026566984</v>
+        <v>13.42856982760729</v>
       </c>
       <c r="E31" t="n">
-        <v>182.4481026566984</v>
+        <v>13.42856982760729</v>
       </c>
       <c r="F31" t="n">
-        <v>182.4481026566984</v>
+        <v>13.42856982760729</v>
       </c>
       <c r="G31" t="n">
         <v>13.42856982760729</v>
@@ -6624,7 +6624,7 @@
         <v>13.42856982760729</v>
       </c>
       <c r="K31" t="n">
-        <v>67.48381938787146</v>
+        <v>67.48381938787139</v>
       </c>
       <c r="L31" t="n">
         <v>192.1823628569181</v>
@@ -6633,7 +6633,7 @@
         <v>334.0486160136001</v>
       </c>
       <c r="N31" t="n">
-        <v>477.9762231787361</v>
+        <v>477.9762231787362</v>
       </c>
       <c r="O31" t="n">
         <v>594.9003682395139</v>
@@ -6642,31 +6642,31 @@
         <v>671.4284913803644</v>
       </c>
       <c r="Q31" t="n">
-        <v>670.5873078856187</v>
+        <v>671.4284913803644</v>
       </c>
       <c r="R31" t="n">
-        <v>521.5534013336501</v>
+        <v>671.4284913803644</v>
       </c>
       <c r="S31" t="n">
-        <v>352.0007519951743</v>
+        <v>671.4284913803644</v>
       </c>
       <c r="T31" t="n">
-        <v>352.0007519951743</v>
+        <v>522.0865178430349</v>
       </c>
       <c r="U31" t="n">
-        <v>352.0007519951743</v>
+        <v>352.533868504559</v>
       </c>
       <c r="V31" t="n">
-        <v>182.4481026566984</v>
+        <v>352.533868504559</v>
       </c>
       <c r="W31" t="n">
-        <v>182.4481026566984</v>
+        <v>182.9812191660832</v>
       </c>
       <c r="X31" t="n">
-        <v>182.4481026566984</v>
+        <v>13.42856982760729</v>
       </c>
       <c r="Y31" t="n">
-        <v>182.4481026566984</v>
+        <v>13.42856982760729</v>
       </c>
     </row>
     <row r="32">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>501.8758420418886</v>
+        <v>182.9812191660832</v>
       </c>
       <c r="C32" t="n">
-        <v>352.533868504559</v>
+        <v>13.42856982760729</v>
       </c>
       <c r="D32" t="n">
-        <v>182.9812191660832</v>
+        <v>13.42856982760729</v>
       </c>
       <c r="E32" t="n">
         <v>13.42856982760729</v>
@@ -6700,19 +6700,19 @@
         <v>13.42856982760729</v>
       </c>
       <c r="J32" t="n">
-        <v>13.42856982760729</v>
+        <v>125.5370972396277</v>
       </c>
       <c r="K32" t="n">
-        <v>173.0284806368043</v>
+        <v>291.7156488562679</v>
       </c>
       <c r="L32" t="n">
-        <v>173.0284806368043</v>
+        <v>291.7156488562679</v>
       </c>
       <c r="M32" t="n">
-        <v>339.2070322534445</v>
+        <v>324.008207380253</v>
       </c>
       <c r="N32" t="n">
-        <v>505.3855838700846</v>
+        <v>357.44833979007</v>
       </c>
       <c r="O32" t="n">
         <v>523.6268914067102</v>
@@ -6724,28 +6724,28 @@
         <v>671.4284913803644</v>
       </c>
       <c r="R32" t="n">
-        <v>671.4284913803644</v>
+        <v>613.6364915702995</v>
       </c>
       <c r="S32" t="n">
-        <v>671.4284913803644</v>
+        <v>613.6364915702995</v>
       </c>
       <c r="T32" t="n">
-        <v>671.4284913803644</v>
+        <v>444.0838422318237</v>
       </c>
       <c r="U32" t="n">
-        <v>671.4284913803644</v>
+        <v>444.0838422318237</v>
       </c>
       <c r="V32" t="n">
-        <v>671.4284913803644</v>
+        <v>352.533868504559</v>
       </c>
       <c r="W32" t="n">
-        <v>671.4284913803644</v>
+        <v>352.533868504559</v>
       </c>
       <c r="X32" t="n">
-        <v>501.8758420418886</v>
+        <v>352.533868504559</v>
       </c>
       <c r="Y32" t="n">
-        <v>501.8758420418886</v>
+        <v>352.533868504559</v>
       </c>
     </row>
     <row r="33">
@@ -6755,13 +6755,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>13.42856982760729</v>
+        <v>112.4331310907701</v>
       </c>
       <c r="C33" t="n">
-        <v>13.42856982760729</v>
+        <v>112.4331310907701</v>
       </c>
       <c r="D33" t="n">
-        <v>13.42856982760729</v>
+        <v>112.4331310907701</v>
       </c>
       <c r="E33" t="n">
         <v>13.42856982760729</v>
@@ -6782,49 +6782,49 @@
         <v>86.50626105090369</v>
       </c>
       <c r="K33" t="n">
-        <v>252.6848126675439</v>
+        <v>86.50626105090369</v>
       </c>
       <c r="L33" t="n">
-        <v>285.1599814939555</v>
+        <v>163.9160527380187</v>
       </c>
       <c r="M33" t="n">
-        <v>342.4138399318885</v>
+        <v>221.1699111759517</v>
       </c>
       <c r="N33" t="n">
-        <v>415.5916825542481</v>
+        <v>294.3477537983113</v>
       </c>
       <c r="O33" t="n">
+        <v>339.071388147084</v>
+      </c>
+      <c r="P33" t="n">
         <v>505.2499397637242</v>
-      </c>
-      <c r="P33" t="n">
-        <v>671.4284913803644</v>
       </c>
       <c r="Q33" t="n">
         <v>671.4284913803644</v>
       </c>
       <c r="R33" t="n">
-        <v>671.4284913803644</v>
+        <v>619.7537667877899</v>
       </c>
       <c r="S33" t="n">
-        <v>512.8183309620714</v>
+        <v>619.7537667877899</v>
       </c>
       <c r="T33" t="n">
-        <v>343.2656816235955</v>
+        <v>450.201117449314</v>
       </c>
       <c r="U33" t="n">
-        <v>343.2656816235955</v>
+        <v>280.6484681108382</v>
       </c>
       <c r="V33" t="n">
-        <v>173.7130322851197</v>
+        <v>280.6484681108382</v>
       </c>
       <c r="W33" t="n">
-        <v>173.7130322851197</v>
+        <v>280.6484681108382</v>
       </c>
       <c r="X33" t="n">
-        <v>173.7130322851197</v>
+        <v>280.6484681108382</v>
       </c>
       <c r="Y33" t="n">
-        <v>13.42856982760729</v>
+        <v>280.6484681108382</v>
       </c>
     </row>
     <row r="34">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>171.35238285817</v>
+        <v>162.7705433649368</v>
       </c>
       <c r="C34" t="n">
-        <v>171.35238285817</v>
+        <v>162.7705433649368</v>
       </c>
       <c r="D34" t="n">
-        <v>171.35238285817</v>
+        <v>162.7705433649368</v>
       </c>
       <c r="E34" t="n">
-        <v>171.35238285817</v>
+        <v>162.7705433649368</v>
       </c>
       <c r="F34" t="n">
-        <v>171.35238285817</v>
+        <v>162.7705433649368</v>
       </c>
       <c r="G34" t="n">
-        <v>171.35238285817</v>
+        <v>162.7705433649368</v>
       </c>
       <c r="H34" t="n">
         <v>13.42856982760729</v>
@@ -6861,7 +6861,7 @@
         <v>13.42856982760729</v>
       </c>
       <c r="K34" t="n">
-        <v>67.48381938787151</v>
+        <v>67.48381938787146</v>
       </c>
       <c r="L34" t="n">
         <v>192.1823628569181</v>
@@ -6870,16 +6870,16 @@
         <v>334.0486160136001</v>
       </c>
       <c r="N34" t="n">
-        <v>477.9762231787362</v>
+        <v>477.9762231787361</v>
       </c>
       <c r="O34" t="n">
-        <v>594.9003682395139</v>
+        <v>594.9003682395138</v>
       </c>
       <c r="P34" t="n">
-        <v>671.4284913803644</v>
+        <v>671.4284913803643</v>
       </c>
       <c r="Q34" t="n">
-        <v>671.4284913803644</v>
+        <v>671.4284913803643</v>
       </c>
       <c r="R34" t="n">
         <v>671.4284913803644</v>
@@ -6888,22 +6888,22 @@
         <v>671.4284913803644</v>
       </c>
       <c r="T34" t="n">
-        <v>671.4284913803644</v>
+        <v>501.8758420418886</v>
       </c>
       <c r="U34" t="n">
-        <v>671.4284913803644</v>
+        <v>501.8758420418886</v>
       </c>
       <c r="V34" t="n">
-        <v>671.4284913803644</v>
+        <v>501.8758420418886</v>
       </c>
       <c r="W34" t="n">
-        <v>510.4576815351217</v>
+        <v>501.8758420418886</v>
       </c>
       <c r="X34" t="n">
-        <v>340.9050321966458</v>
+        <v>332.3231927034127</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.35238285817</v>
+        <v>162.7705433649368</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>8.80199540838038</v>
+        <v>8.801995408380384</v>
       </c>
       <c r="C35" t="n">
-        <v>8.80199540838038</v>
+        <v>8.801995408380384</v>
       </c>
       <c r="D35" t="n">
-        <v>8.80199540838038</v>
+        <v>8.801995408380384</v>
       </c>
       <c r="E35" t="n">
-        <v>8.80199540838038</v>
+        <v>8.801995408380384</v>
       </c>
       <c r="F35" t="n">
-        <v>8.80199540838038</v>
+        <v>8.801995408380384</v>
       </c>
       <c r="G35" t="n">
-        <v>8.80199540838038</v>
+        <v>8.801995408380384</v>
       </c>
       <c r="H35" t="n">
-        <v>8.80199540838038</v>
+        <v>8.801995408380384</v>
       </c>
       <c r="I35" t="n">
-        <v>8.80199540838038</v>
+        <v>8.801995408380384</v>
       </c>
       <c r="J35" t="n">
-        <v>8.80199540838038</v>
+        <v>8.801995408380384</v>
       </c>
       <c r="K35" t="n">
-        <v>8.80199540838038</v>
+        <v>8.801995408380384</v>
       </c>
       <c r="L35" t="n">
-        <v>8.80199540838038</v>
+        <v>8.801995408380384</v>
       </c>
       <c r="M35" t="n">
         <v>117.7266885870876</v>
       </c>
       <c r="N35" t="n">
-        <v>151.1668209969046</v>
+        <v>226.6513817657948</v>
       </c>
       <c r="O35" t="n">
-        <v>260.0915141756118</v>
+        <v>335.5760749445021</v>
       </c>
       <c r="P35" t="n">
-        <v>369.016207354319</v>
+        <v>440.0997704190191</v>
       </c>
       <c r="Q35" t="n">
-        <v>440.099770419019</v>
+        <v>440.0997704190191</v>
       </c>
       <c r="R35" t="n">
-        <v>440.099770419019</v>
+        <v>440.0997704190191</v>
       </c>
       <c r="S35" t="n">
-        <v>440.099770419019</v>
+        <v>342.2109123924859</v>
       </c>
       <c r="T35" t="n">
-        <v>440.099770419019</v>
+        <v>231.0746067311173</v>
       </c>
       <c r="U35" t="n">
-        <v>440.099770419019</v>
+        <v>231.0746067311173</v>
       </c>
       <c r="V35" t="n">
-        <v>440.099770419019</v>
+        <v>231.0746067311173</v>
       </c>
       <c r="W35" t="n">
-        <v>328.9634647576506</v>
+        <v>231.0746067311173</v>
       </c>
       <c r="X35" t="n">
-        <v>217.8271590962821</v>
+        <v>231.0746067311173</v>
       </c>
       <c r="Y35" t="n">
-        <v>106.6908534349137</v>
+        <v>119.9383010697489</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.1524345037076</v>
+        <v>8.801995408380384</v>
       </c>
       <c r="C36" t="n">
-        <v>166.1524345037076</v>
+        <v>8.801995408380384</v>
       </c>
       <c r="D36" t="n">
-        <v>166.1524345037076</v>
+        <v>8.801995408380384</v>
       </c>
       <c r="E36" t="n">
-        <v>166.1524345037076</v>
+        <v>8.801995408380384</v>
       </c>
       <c r="F36" t="n">
-        <v>166.1524345037076</v>
+        <v>8.801995408380384</v>
       </c>
       <c r="G36" t="n">
-        <v>166.1524345037076</v>
+        <v>8.801995408380384</v>
       </c>
       <c r="H36" t="n">
-        <v>60.48233538272633</v>
+        <v>8.801995408380384</v>
       </c>
       <c r="I36" t="n">
-        <v>8.80199540838038</v>
+        <v>8.801995408380384</v>
       </c>
       <c r="J36" t="n">
-        <v>8.80199540838038</v>
+        <v>8.801995408380384</v>
       </c>
       <c r="K36" t="n">
-        <v>8.80199540838038</v>
+        <v>117.7266885870876</v>
       </c>
       <c r="L36" t="n">
-        <v>117.7266885870876</v>
+        <v>226.6513817657948</v>
       </c>
       <c r="M36" t="n">
-        <v>174.9805470250206</v>
+        <v>305.6367002210217</v>
       </c>
       <c r="N36" t="n">
-        <v>283.9052402037278</v>
+        <v>378.8145428433813</v>
       </c>
       <c r="O36" t="n">
-        <v>331.1750772403118</v>
+        <v>423.5381771921541</v>
       </c>
       <c r="P36" t="n">
-        <v>440.099770419019</v>
+        <v>440.0997704190191</v>
       </c>
       <c r="Q36" t="n">
-        <v>440.099770419019</v>
+        <v>440.0997704190191</v>
       </c>
       <c r="R36" t="n">
-        <v>388.4250458264445</v>
+        <v>440.0997704190191</v>
       </c>
       <c r="S36" t="n">
-        <v>388.4250458264445</v>
+        <v>440.0997704190191</v>
       </c>
       <c r="T36" t="n">
-        <v>388.4250458264445</v>
+        <v>328.9634647576506</v>
       </c>
       <c r="U36" t="n">
-        <v>388.4250458264445</v>
+        <v>328.9634647576506</v>
       </c>
       <c r="V36" t="n">
-        <v>388.4250458264445</v>
+        <v>217.8271590962821</v>
       </c>
       <c r="W36" t="n">
-        <v>388.4250458264445</v>
+        <v>119.9383010697489</v>
       </c>
       <c r="X36" t="n">
-        <v>277.288740165076</v>
+        <v>119.9383010697489</v>
       </c>
       <c r="Y36" t="n">
-        <v>166.1524345037076</v>
+        <v>8.801995408380384</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>8.80199540838038</v>
+        <v>217.8271590962821</v>
       </c>
       <c r="C37" t="n">
-        <v>8.80199540838038</v>
+        <v>217.8271590962821</v>
       </c>
       <c r="D37" t="n">
-        <v>8.80199540838038</v>
+        <v>217.8271590962821</v>
       </c>
       <c r="E37" t="n">
-        <v>8.80199540838038</v>
+        <v>106.6908534349137</v>
       </c>
       <c r="F37" t="n">
-        <v>8.80199540838038</v>
+        <v>8.801995408380384</v>
       </c>
       <c r="G37" t="n">
-        <v>8.80199540838038</v>
+        <v>8.801995408380384</v>
       </c>
       <c r="H37" t="n">
-        <v>8.80199540838038</v>
+        <v>8.801995408380384</v>
       </c>
       <c r="I37" t="n">
-        <v>8.80199540838038</v>
+        <v>8.801995408380384</v>
       </c>
       <c r="J37" t="n">
-        <v>8.80199540838038</v>
+        <v>8.801995408380384</v>
       </c>
       <c r="K37" t="n">
-        <v>8.80199540838038</v>
+        <v>8.801995408380384</v>
       </c>
       <c r="L37" t="n">
         <v>117.7266885870876</v>
       </c>
       <c r="M37" t="n">
-        <v>145.7222609207541</v>
+        <v>226.6513817657948</v>
       </c>
       <c r="N37" t="n">
-        <v>254.6469540994613</v>
+        <v>254.6469540994614</v>
       </c>
       <c r="O37" t="n">
-        <v>363.5716472781685</v>
+        <v>363.5716472781686</v>
       </c>
       <c r="P37" t="n">
-        <v>440.099770419019</v>
+        <v>440.0997704190191</v>
       </c>
       <c r="Q37" t="n">
-        <v>440.099770419019</v>
+        <v>440.0997704190191</v>
       </c>
       <c r="R37" t="n">
-        <v>440.099770419019</v>
+        <v>440.0997704190191</v>
       </c>
       <c r="S37" t="n">
-        <v>440.099770419019</v>
+        <v>440.0997704190191</v>
       </c>
       <c r="T37" t="n">
-        <v>440.099770419019</v>
+        <v>440.0997704190191</v>
       </c>
       <c r="U37" t="n">
         <v>328.9634647576506</v>
       </c>
       <c r="V37" t="n">
-        <v>328.9634647576506</v>
+        <v>217.8271590962821</v>
       </c>
       <c r="W37" t="n">
         <v>217.8271590962821</v>
       </c>
       <c r="X37" t="n">
-        <v>106.6908534349137</v>
+        <v>217.8271590962821</v>
       </c>
       <c r="Y37" t="n">
-        <v>106.6908534349137</v>
+        <v>217.8271590962821</v>
       </c>
     </row>
     <row r="38">
@@ -7150,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>8.80199540838038</v>
+        <v>231.0746067311173</v>
       </c>
       <c r="C38" t="n">
-        <v>8.80199540838038</v>
+        <v>231.0746067311173</v>
       </c>
       <c r="D38" t="n">
-        <v>8.80199540838038</v>
+        <v>231.0746067311173</v>
       </c>
       <c r="E38" t="n">
-        <v>8.80199540838038</v>
+        <v>231.0746067311173</v>
       </c>
       <c r="F38" t="n">
-        <v>8.80199540838038</v>
+        <v>119.9383010697489</v>
       </c>
       <c r="G38" t="n">
-        <v>8.80199540838038</v>
+        <v>8.801995408380384</v>
       </c>
       <c r="H38" t="n">
-        <v>8.80199540838038</v>
+        <v>8.801995408380384</v>
       </c>
       <c r="I38" t="n">
-        <v>8.80199540838038</v>
+        <v>8.801995408380384</v>
       </c>
       <c r="J38" t="n">
-        <v>117.7266885870876</v>
+        <v>8.801995408380384</v>
       </c>
       <c r="K38" t="n">
         <v>117.7266885870876</v>
@@ -7183,43 +7183,43 @@
         <v>117.7266885870876</v>
       </c>
       <c r="M38" t="n">
-        <v>146.0939998644924</v>
+        <v>226.6513817657948</v>
       </c>
       <c r="N38" t="n">
-        <v>255.0186930431996</v>
+        <v>331.1750772403119</v>
       </c>
       <c r="O38" t="n">
-        <v>331.1750772403118</v>
+        <v>440.0997704190191</v>
       </c>
       <c r="P38" t="n">
-        <v>440.099770419019</v>
+        <v>440.0997704190191</v>
       </c>
       <c r="Q38" t="n">
-        <v>440.099770419019</v>
+        <v>440.0997704190191</v>
       </c>
       <c r="R38" t="n">
-        <v>382.3077706089542</v>
+        <v>440.0997704190191</v>
       </c>
       <c r="S38" t="n">
-        <v>382.3077706089542</v>
+        <v>328.9634647576506</v>
       </c>
       <c r="T38" t="n">
-        <v>382.3077706089542</v>
+        <v>231.0746067311173</v>
       </c>
       <c r="U38" t="n">
-        <v>382.3077706089542</v>
+        <v>231.0746067311173</v>
       </c>
       <c r="V38" t="n">
-        <v>271.1714649475857</v>
+        <v>231.0746067311173</v>
       </c>
       <c r="W38" t="n">
-        <v>160.0351592862173</v>
+        <v>231.0746067311173</v>
       </c>
       <c r="X38" t="n">
-        <v>48.89885362484881</v>
+        <v>231.0746067311173</v>
       </c>
       <c r="Y38" t="n">
-        <v>8.80199540838038</v>
+        <v>231.0746067311173</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>217.8271590962821</v>
+        <v>119.9383010697489</v>
       </c>
       <c r="C39" t="n">
-        <v>119.9383010697488</v>
+        <v>119.9383010697489</v>
       </c>
       <c r="D39" t="n">
-        <v>119.9383010697488</v>
+        <v>119.9383010697489</v>
       </c>
       <c r="E39" t="n">
-        <v>119.9383010697488</v>
+        <v>8.801995408380384</v>
       </c>
       <c r="F39" t="n">
-        <v>8.80199540838038</v>
+        <v>8.801995408380384</v>
       </c>
       <c r="G39" t="n">
-        <v>8.80199540838038</v>
+        <v>8.801995408380384</v>
       </c>
       <c r="H39" t="n">
-        <v>8.80199540838038</v>
+        <v>8.801995408380384</v>
       </c>
       <c r="I39" t="n">
-        <v>8.80199540838038</v>
+        <v>8.801995408380384</v>
       </c>
       <c r="J39" t="n">
-        <v>8.80199540838038</v>
+        <v>8.801995408380384</v>
       </c>
       <c r="K39" t="n">
-        <v>8.80199540838038</v>
+        <v>117.7266885870876</v>
       </c>
       <c r="L39" t="n">
-        <v>117.7266885870876</v>
+        <v>150.2018574134992</v>
       </c>
       <c r="M39" t="n">
-        <v>174.9805470250206</v>
+        <v>207.4557158514322</v>
       </c>
       <c r="N39" t="n">
-        <v>248.1583896473801</v>
+        <v>280.6335584737918</v>
       </c>
       <c r="O39" t="n">
-        <v>357.0830828260873</v>
+        <v>325.3571928225646</v>
       </c>
       <c r="P39" t="n">
-        <v>440.099770419019</v>
+        <v>341.9187860494296</v>
       </c>
       <c r="Q39" t="n">
-        <v>440.099770419019</v>
+        <v>440.0997704190191</v>
       </c>
       <c r="R39" t="n">
-        <v>440.099770419019</v>
+        <v>440.0997704190191</v>
       </c>
       <c r="S39" t="n">
-        <v>440.099770419019</v>
+        <v>440.0997704190191</v>
       </c>
       <c r="T39" t="n">
-        <v>328.9634647576506</v>
+        <v>440.0997704190191</v>
       </c>
       <c r="U39" t="n">
         <v>328.9634647576506</v>
       </c>
       <c r="V39" t="n">
-        <v>328.9634647576506</v>
+        <v>217.8271590962821</v>
       </c>
       <c r="W39" t="n">
-        <v>328.9634647576506</v>
+        <v>119.9383010697489</v>
       </c>
       <c r="X39" t="n">
-        <v>217.8271590962821</v>
+        <v>119.9383010697489</v>
       </c>
       <c r="Y39" t="n">
-        <v>217.8271590962821</v>
+        <v>119.9383010697489</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>328.9634647576506</v>
+        <v>119.9383010697489</v>
       </c>
       <c r="C40" t="n">
-        <v>217.8271590962821</v>
+        <v>119.9383010697489</v>
       </c>
       <c r="D40" t="n">
-        <v>119.9383010697488</v>
+        <v>119.9383010697489</v>
       </c>
       <c r="E40" t="n">
-        <v>119.9383010697488</v>
+        <v>119.9383010697489</v>
       </c>
       <c r="F40" t="n">
-        <v>8.80199540838038</v>
+        <v>119.9383010697489</v>
       </c>
       <c r="G40" t="n">
-        <v>8.80199540838038</v>
+        <v>119.9383010697489</v>
       </c>
       <c r="H40" t="n">
-        <v>8.80199540838038</v>
+        <v>119.9383010697489</v>
       </c>
       <c r="I40" t="n">
-        <v>8.80199540838038</v>
+        <v>8.801995408380384</v>
       </c>
       <c r="J40" t="n">
-        <v>8.80199540838038</v>
+        <v>8.801995408380384</v>
       </c>
       <c r="K40" t="n">
-        <v>62.85724496864455</v>
+        <v>62.85724496864456</v>
       </c>
       <c r="L40" t="n">
-        <v>171.7819381473518</v>
+        <v>145.7222609207541</v>
       </c>
       <c r="M40" t="n">
-        <v>280.706631326059</v>
+        <v>254.6469540994614</v>
       </c>
       <c r="N40" t="n">
-        <v>363.5716472781685</v>
+        <v>254.6469540994614</v>
       </c>
       <c r="O40" t="n">
-        <v>363.5716472781685</v>
+        <v>363.5716472781686</v>
       </c>
       <c r="P40" t="n">
-        <v>440.099770419019</v>
+        <v>440.0997704190191</v>
       </c>
       <c r="Q40" t="n">
-        <v>440.099770419019</v>
+        <v>440.0997704190191</v>
       </c>
       <c r="R40" t="n">
-        <v>440.099770419019</v>
+        <v>440.0997704190191</v>
       </c>
       <c r="S40" t="n">
-        <v>440.099770419019</v>
+        <v>342.2109123924859</v>
       </c>
       <c r="T40" t="n">
-        <v>440.099770419019</v>
+        <v>342.2109123924859</v>
       </c>
       <c r="U40" t="n">
-        <v>440.099770419019</v>
+        <v>231.0746067311173</v>
       </c>
       <c r="V40" t="n">
-        <v>440.099770419019</v>
+        <v>231.0746067311173</v>
       </c>
       <c r="W40" t="n">
-        <v>440.099770419019</v>
+        <v>231.0746067311173</v>
       </c>
       <c r="X40" t="n">
-        <v>440.099770419019</v>
+        <v>119.9383010697489</v>
       </c>
       <c r="Y40" t="n">
-        <v>440.099770419019</v>
+        <v>119.9383010697489</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>375.7604403809322</v>
+        <v>197.2932090000085</v>
       </c>
       <c r="C41" t="n">
-        <v>375.7604403809322</v>
+        <v>102.4042089038136</v>
       </c>
       <c r="D41" t="n">
-        <v>375.7604403809322</v>
+        <v>7.515208807618637</v>
       </c>
       <c r="E41" t="n">
-        <v>280.8714402847372</v>
+        <v>7.515208807618637</v>
       </c>
       <c r="F41" t="n">
-        <v>185.9824401885422</v>
+        <v>7.515208807618637</v>
       </c>
       <c r="G41" t="n">
-        <v>91.09344009234722</v>
+        <v>7.515208807618637</v>
       </c>
       <c r="H41" t="n">
-        <v>7.515208807618644</v>
+        <v>7.515208807618637</v>
       </c>
       <c r="I41" t="n">
-        <v>7.515208807618644</v>
+        <v>7.515208807618637</v>
       </c>
       <c r="J41" t="n">
-        <v>7.515208807618644</v>
+        <v>100.5159178018993</v>
       </c>
       <c r="K41" t="n">
-        <v>7.515208807618644</v>
+        <v>193.5166267961799</v>
       </c>
       <c r="L41" t="n">
-        <v>7.515208807618644</v>
+        <v>202.7109801628038</v>
       </c>
       <c r="M41" t="n">
-        <v>35.88252008502345</v>
+        <v>231.0782914402086</v>
       </c>
       <c r="N41" t="n">
-        <v>96.75831339809004</v>
+        <v>264.5184238500256</v>
       </c>
       <c r="O41" t="n">
-        <v>189.7590223923708</v>
+        <v>282.7597313866512</v>
       </c>
       <c r="P41" t="n">
-        <v>282.7597313866515</v>
+        <v>375.7604403809319</v>
       </c>
       <c r="Q41" t="n">
-        <v>375.7604403809322</v>
+        <v>375.7604403809319</v>
       </c>
       <c r="R41" t="n">
-        <v>375.7604403809322</v>
+        <v>375.7604403809319</v>
       </c>
       <c r="S41" t="n">
-        <v>375.7604403809322</v>
+        <v>375.7604403809319</v>
       </c>
       <c r="T41" t="n">
-        <v>375.7604403809322</v>
+        <v>375.7604403809319</v>
       </c>
       <c r="U41" t="n">
-        <v>375.7604403809322</v>
+        <v>375.7604403809319</v>
       </c>
       <c r="V41" t="n">
-        <v>375.7604403809322</v>
+        <v>280.8714402847369</v>
       </c>
       <c r="W41" t="n">
-        <v>375.7604403809322</v>
+        <v>197.2932090000085</v>
       </c>
       <c r="X41" t="n">
-        <v>375.7604403809322</v>
+        <v>197.2932090000085</v>
       </c>
       <c r="Y41" t="n">
-        <v>375.7604403809322</v>
+        <v>197.2932090000085</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>324.0857157883577</v>
+        <v>102.4042089038136</v>
       </c>
       <c r="C42" t="n">
-        <v>292.1822090962037</v>
+        <v>7.515208807618637</v>
       </c>
       <c r="D42" t="n">
-        <v>197.2932090000087</v>
+        <v>7.515208807618637</v>
       </c>
       <c r="E42" t="n">
-        <v>102.4042089038137</v>
+        <v>7.515208807618637</v>
       </c>
       <c r="F42" t="n">
-        <v>7.515208807618644</v>
+        <v>7.515208807618637</v>
       </c>
       <c r="G42" t="n">
-        <v>7.515208807618644</v>
+        <v>7.515208807618637</v>
       </c>
       <c r="H42" t="n">
-        <v>7.515208807618644</v>
+        <v>7.515208807618637</v>
       </c>
       <c r="I42" t="n">
-        <v>7.515208807618644</v>
+        <v>7.515208807618637</v>
       </c>
       <c r="J42" t="n">
-        <v>7.515208807618644</v>
+        <v>7.515208807618637</v>
       </c>
       <c r="K42" t="n">
-        <v>7.515208807618644</v>
+        <v>7.515208807618637</v>
       </c>
       <c r="L42" t="n">
-        <v>100.5159178018994</v>
+        <v>39.99037763403024</v>
       </c>
       <c r="M42" t="n">
-        <v>193.0202955374268</v>
+        <v>97.24423607196323</v>
       </c>
       <c r="N42" t="n">
-        <v>266.1981381597864</v>
+        <v>190.2449450662439</v>
       </c>
       <c r="O42" t="n">
-        <v>359.1988471540672</v>
+        <v>283.2456540605245</v>
       </c>
       <c r="P42" t="n">
-        <v>375.7604403809322</v>
+        <v>375.7604403809319</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.7604403809322</v>
+        <v>375.7604403809319</v>
       </c>
       <c r="R42" t="n">
-        <v>324.0857157883577</v>
+        <v>324.0857157883573</v>
       </c>
       <c r="S42" t="n">
-        <v>324.0857157883577</v>
+        <v>324.0857157883573</v>
       </c>
       <c r="T42" t="n">
-        <v>324.0857157883577</v>
+        <v>324.0857157883573</v>
       </c>
       <c r="U42" t="n">
-        <v>324.0857157883577</v>
+        <v>324.0857157883573</v>
       </c>
       <c r="V42" t="n">
-        <v>324.0857157883577</v>
+        <v>324.0857157883573</v>
       </c>
       <c r="W42" t="n">
-        <v>324.0857157883577</v>
+        <v>324.0857157883573</v>
       </c>
       <c r="X42" t="n">
-        <v>324.0857157883577</v>
+        <v>292.1822090962034</v>
       </c>
       <c r="Y42" t="n">
-        <v>324.0857157883577</v>
+        <v>197.2932090000085</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>7.515208807618644</v>
+        <v>102.4042089038136</v>
       </c>
       <c r="C43" t="n">
-        <v>7.515208807618644</v>
+        <v>102.4042089038136</v>
       </c>
       <c r="D43" t="n">
-        <v>7.515208807618644</v>
+        <v>102.4042089038136</v>
       </c>
       <c r="E43" t="n">
-        <v>7.515208807618644</v>
+        <v>102.4042089038136</v>
       </c>
       <c r="F43" t="n">
-        <v>7.515208807618644</v>
+        <v>102.4042089038136</v>
       </c>
       <c r="G43" t="n">
-        <v>7.515208807618644</v>
+        <v>7.515208807618637</v>
       </c>
       <c r="H43" t="n">
-        <v>7.515208807618644</v>
+        <v>7.515208807618637</v>
       </c>
       <c r="I43" t="n">
-        <v>7.515208807618644</v>
+        <v>7.515208807618637</v>
       </c>
       <c r="J43" t="n">
-        <v>7.515208807618644</v>
+        <v>7.515208807618637</v>
       </c>
       <c r="K43" t="n">
-        <v>61.57045836788281</v>
+        <v>7.515208807618637</v>
       </c>
       <c r="L43" t="n">
-        <v>154.5711673621635</v>
+        <v>100.5159178018993</v>
       </c>
       <c r="M43" t="n">
-        <v>154.5711673621635</v>
+        <v>113.23089925152</v>
       </c>
       <c r="N43" t="n">
-        <v>247.5718763564442</v>
+        <v>206.2316082458007</v>
       </c>
       <c r="O43" t="n">
-        <v>340.572585350725</v>
+        <v>299.2323172400813</v>
       </c>
       <c r="P43" t="n">
-        <v>375.7604403809322</v>
+        <v>375.7604403809319</v>
       </c>
       <c r="Q43" t="n">
-        <v>344.6911877932983</v>
+        <v>375.7604403809319</v>
       </c>
       <c r="R43" t="n">
-        <v>249.8021876971033</v>
+        <v>375.7604403809319</v>
       </c>
       <c r="S43" t="n">
-        <v>154.9131876009083</v>
+        <v>375.7604403809319</v>
       </c>
       <c r="T43" t="n">
-        <v>60.02418750471331</v>
+        <v>280.8714402847369</v>
       </c>
       <c r="U43" t="n">
-        <v>7.515208807618644</v>
+        <v>185.982440188542</v>
       </c>
       <c r="V43" t="n">
-        <v>7.515208807618644</v>
+        <v>102.4042089038136</v>
       </c>
       <c r="W43" t="n">
-        <v>7.515208807618644</v>
+        <v>102.4042089038136</v>
       </c>
       <c r="X43" t="n">
-        <v>7.515208807618644</v>
+        <v>102.4042089038136</v>
       </c>
       <c r="Y43" t="n">
-        <v>7.515208807618644</v>
+        <v>102.4042089038136</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>33.30144028228237</v>
+        <v>128.1904403784771</v>
       </c>
       <c r="C44" t="n">
-        <v>33.30144028228237</v>
+        <v>128.1904403784771</v>
       </c>
       <c r="D44" t="n">
-        <v>33.30144028228237</v>
+        <v>33.30144028228223</v>
       </c>
       <c r="E44" t="n">
-        <v>33.30144028228237</v>
+        <v>33.30144028228223</v>
       </c>
       <c r="F44" t="n">
-        <v>33.30144028228237</v>
+        <v>33.30144028228223</v>
       </c>
       <c r="G44" t="n">
-        <v>33.30144028228237</v>
+        <v>33.30144028228223</v>
       </c>
       <c r="H44" t="n">
-        <v>33.30144028228237</v>
+        <v>33.30144028228223</v>
       </c>
       <c r="I44" t="n">
-        <v>7.515208807618644</v>
+        <v>7.515208807618637</v>
       </c>
       <c r="J44" t="n">
-        <v>100.5159178018994</v>
+        <v>100.5159178018993</v>
       </c>
       <c r="K44" t="n">
-        <v>100.5159178018994</v>
+        <v>100.5159178018993</v>
       </c>
       <c r="L44" t="n">
-        <v>193.5166267961801</v>
+        <v>100.5159178018993</v>
       </c>
       <c r="M44" t="n">
-        <v>286.5173357904608</v>
+        <v>128.8832290793041</v>
       </c>
       <c r="N44" t="n">
-        <v>319.9574682002778</v>
+        <v>189.7590223923706</v>
       </c>
       <c r="O44" t="n">
-        <v>375.7604403809322</v>
+        <v>282.7597313866512</v>
       </c>
       <c r="P44" t="n">
-        <v>375.7604403809322</v>
+        <v>375.7604403809319</v>
       </c>
       <c r="Q44" t="n">
-        <v>375.7604403809322</v>
+        <v>375.7604403809319</v>
       </c>
       <c r="R44" t="n">
-        <v>317.9684405708674</v>
+        <v>317.968440570867</v>
       </c>
       <c r="S44" t="n">
-        <v>223.0794404746724</v>
+        <v>317.968440570867</v>
       </c>
       <c r="T44" t="n">
-        <v>128.1904403784774</v>
+        <v>317.968440570867</v>
       </c>
       <c r="U44" t="n">
-        <v>33.30144028228237</v>
+        <v>317.968440570867</v>
       </c>
       <c r="V44" t="n">
-        <v>33.30144028228237</v>
+        <v>223.0794404746721</v>
       </c>
       <c r="W44" t="n">
-        <v>33.30144028228237</v>
+        <v>223.0794404746721</v>
       </c>
       <c r="X44" t="n">
-        <v>33.30144028228237</v>
+        <v>223.0794404746721</v>
       </c>
       <c r="Y44" t="n">
-        <v>33.30144028228237</v>
+        <v>223.0794404746721</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>39.41871549977269</v>
+        <v>134.3077155959675</v>
       </c>
       <c r="C45" t="n">
-        <v>7.515208807618644</v>
+        <v>134.3077155959675</v>
       </c>
       <c r="D45" t="n">
-        <v>7.515208807618644</v>
+        <v>134.3077155959675</v>
       </c>
       <c r="E45" t="n">
-        <v>7.515208807618644</v>
+        <v>134.3077155959675</v>
       </c>
       <c r="F45" t="n">
-        <v>7.515208807618644</v>
+        <v>134.3077155959675</v>
       </c>
       <c r="G45" t="n">
-        <v>7.515208807618644</v>
+        <v>134.3077155959675</v>
       </c>
       <c r="H45" t="n">
-        <v>7.515208807618644</v>
+        <v>39.41871549977255</v>
       </c>
       <c r="I45" t="n">
-        <v>7.515208807618644</v>
+        <v>7.515208807618637</v>
       </c>
       <c r="J45" t="n">
-        <v>7.515208807618644</v>
+        <v>7.515208807618637</v>
       </c>
       <c r="K45" t="n">
-        <v>7.515208807618644</v>
+        <v>7.515208807618637</v>
       </c>
       <c r="L45" t="n">
-        <v>91.04280275072108</v>
+        <v>39.99037763403024</v>
       </c>
       <c r="M45" t="n">
-        <v>148.2966611886541</v>
+        <v>97.24423607196323</v>
       </c>
       <c r="N45" t="n">
-        <v>221.4745038110137</v>
+        <v>170.4220786943228</v>
       </c>
       <c r="O45" t="n">
-        <v>266.1981381597864</v>
+        <v>215.1457130430956</v>
       </c>
       <c r="P45" t="n">
-        <v>282.7597313866515</v>
+        <v>308.1464220373762</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.7604403809322</v>
+        <v>375.7604403809319</v>
       </c>
       <c r="R45" t="n">
-        <v>324.0857157883577</v>
+        <v>324.0857157883573</v>
       </c>
       <c r="S45" t="n">
-        <v>229.1967156921627</v>
+        <v>229.1967156921624</v>
       </c>
       <c r="T45" t="n">
-        <v>229.1967156921627</v>
+        <v>134.3077155959675</v>
       </c>
       <c r="U45" t="n">
-        <v>229.1967156921627</v>
+        <v>134.3077155959675</v>
       </c>
       <c r="V45" t="n">
-        <v>229.1967156921627</v>
+        <v>134.3077155959675</v>
       </c>
       <c r="W45" t="n">
-        <v>229.1967156921627</v>
+        <v>134.3077155959675</v>
       </c>
       <c r="X45" t="n">
-        <v>229.1967156921627</v>
+        <v>134.3077155959675</v>
       </c>
       <c r="Y45" t="n">
-        <v>134.3077155959677</v>
+        <v>134.3077155959675</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>249.8021876971033</v>
+        <v>7.515208807618637</v>
       </c>
       <c r="C46" t="n">
-        <v>249.8021876971033</v>
+        <v>7.515208807618637</v>
       </c>
       <c r="D46" t="n">
-        <v>249.8021876971033</v>
+        <v>7.515208807618637</v>
       </c>
       <c r="E46" t="n">
-        <v>249.8021876971033</v>
+        <v>7.515208807618637</v>
       </c>
       <c r="F46" t="n">
-        <v>249.8021876971033</v>
+        <v>7.515208807618637</v>
       </c>
       <c r="G46" t="n">
-        <v>244.3448259497179</v>
+        <v>7.515208807618637</v>
       </c>
       <c r="H46" t="n">
-        <v>149.4558258535229</v>
+        <v>7.515208807618637</v>
       </c>
       <c r="I46" t="n">
-        <v>54.56682575732793</v>
+        <v>7.515208807618637</v>
       </c>
       <c r="J46" t="n">
-        <v>7.515208807618644</v>
+        <v>7.515208807618637</v>
       </c>
       <c r="K46" t="n">
-        <v>61.57045836788281</v>
+        <v>7.515208807618637</v>
       </c>
       <c r="L46" t="n">
-        <v>154.5711673621635</v>
+        <v>100.5159178018993</v>
       </c>
       <c r="M46" t="n">
-        <v>247.5718763564442</v>
+        <v>189.7590223923706</v>
       </c>
       <c r="N46" t="n">
-        <v>299.2323172400817</v>
+        <v>282.7597313866512</v>
       </c>
       <c r="O46" t="n">
-        <v>299.2323172400817</v>
+        <v>375.7604403809319</v>
       </c>
       <c r="P46" t="n">
-        <v>375.7604403809322</v>
+        <v>375.7604403809319</v>
       </c>
       <c r="Q46" t="n">
-        <v>344.6911877932983</v>
+        <v>375.7604403809319</v>
       </c>
       <c r="R46" t="n">
-        <v>344.6911877932983</v>
+        <v>280.8714402847369</v>
       </c>
       <c r="S46" t="n">
-        <v>344.6911877932983</v>
+        <v>280.8714402847369</v>
       </c>
       <c r="T46" t="n">
-        <v>344.6911877932983</v>
+        <v>280.8714402847369</v>
       </c>
       <c r="U46" t="n">
-        <v>344.6911877932983</v>
+        <v>185.982440188542</v>
       </c>
       <c r="V46" t="n">
-        <v>344.6911877932983</v>
+        <v>102.4042089038136</v>
       </c>
       <c r="W46" t="n">
-        <v>344.6911877932983</v>
+        <v>7.515208807618637</v>
       </c>
       <c r="X46" t="n">
-        <v>344.6911877932983</v>
+        <v>7.515208807618637</v>
       </c>
       <c r="Y46" t="n">
-        <v>344.6911877932983</v>
+        <v>7.515208807618637</v>
       </c>
     </row>
   </sheetData>
@@ -8689,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>55.8556783922552</v>
+        <v>55.85567839225523</v>
       </c>
       <c r="K11" t="n">
-        <v>32.46215428776603</v>
+        <v>32.46215428776605</v>
       </c>
       <c r="L11" t="n">
-        <v>2.997665966800355</v>
+        <v>60.82984620713674</v>
       </c>
       <c r="M11" t="n">
-        <v>29.17833046517998</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>24.05426871526868</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>39.40661707202767</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>74.61923043669691</v>
+        <v>51.59408620850068</v>
       </c>
       <c r="Q11" t="n">
-        <v>63.02044523197119</v>
+        <v>120.8526254723076</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8768,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>52.27518561990742</v>
+        <v>52.27518561990743</v>
       </c>
       <c r="K12" t="n">
-        <v>10.40235109456995</v>
+        <v>10.40235109456997</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>18.62023562040723</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8783,13 +8783,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>12.65679200925277</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>5.963443611154435</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>39.24061609777205</v>
+        <v>39.24061609777206</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8853,19 +8853,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L13" t="n">
-        <v>94.34875706568207</v>
+        <v>94.34875706568205</v>
       </c>
       <c r="M13" t="n">
-        <v>93.04259553697192</v>
+        <v>93.0425955369719</v>
       </c>
       <c r="N13" t="n">
-        <v>27.3305597767035</v>
+        <v>84.26847570587279</v>
       </c>
       <c r="O13" t="n">
-        <v>44.93646933479387</v>
+        <v>45.83073364596091</v>
       </c>
       <c r="P13" t="n">
-        <v>115.5376090686699</v>
+        <v>57.70542882833351</v>
       </c>
       <c r="Q13" t="n">
         <v>65.34295837775146</v>
@@ -8941,13 +8941,13 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>32.47038226505568</v>
+        <v>39.40661707202767</v>
       </c>
       <c r="P14" t="n">
         <v>19.12370394344487</v>
       </c>
       <c r="Q14" t="n">
-        <v>120.8526254723076</v>
+        <v>113.9163906653356</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9011,7 +9011,7 @@
         <v>10.40235109456995</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>18.62023562040719</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>57.86085171817924</v>
+        <v>39.24061609777205</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9087,19 +9087,19 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>106.7437663446525</v>
+        <v>52.1425041625675</v>
       </c>
       <c r="L16" t="n">
         <v>94.34875706568207</v>
       </c>
       <c r="M16" t="n">
-        <v>35.21041529663556</v>
+        <v>93.04259553697192</v>
       </c>
       <c r="N16" t="n">
-        <v>27.33055977670348</v>
+        <v>81.9318219587885</v>
       </c>
       <c r="O16" t="n">
-        <v>102.7686495751302</v>
+        <v>44.93646933479387</v>
       </c>
       <c r="P16" t="n">
         <v>115.5376090686699</v>
@@ -9163,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>55.8556783922552</v>
+        <v>129.7726911421134</v>
       </c>
       <c r="K17" t="n">
         <v>32.46215428776603</v>
       </c>
       <c r="L17" t="n">
-        <v>2.997665966800355</v>
+        <v>55.50256957865859</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>45.2631629747018</v>
       </c>
       <c r="N17" t="n">
-        <v>40.13910122479049</v>
+        <v>40.13910122479052</v>
       </c>
       <c r="O17" t="n">
-        <v>55.49144958154949</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>93.04071669330304</v>
+        <v>19.12370394344487</v>
       </c>
       <c r="Q17" t="n">
-        <v>105.2970622369817</v>
+        <v>63.02044523197119</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9251,7 +9251,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>9.036710223845958</v>
+        <v>16.08483250952182</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>57.18813070251974</v>
+        <v>50.14000841684391</v>
       </c>
       <c r="Q18" t="n">
         <v>39.24061609777205</v>
@@ -9330,13 +9330,13 @@
         <v>110.4335895752039</v>
       </c>
       <c r="M19" t="n">
-        <v>109.1274280464937</v>
+        <v>51.53961989471745</v>
       </c>
       <c r="N19" t="n">
-        <v>42.76550006361834</v>
+        <v>26.43629546553645</v>
       </c>
       <c r="O19" t="n">
-        <v>44.93646933479387</v>
+        <v>118.853482084652</v>
       </c>
       <c r="P19" t="n">
         <v>131.6224415781917</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>129.7726911421134</v>
+        <v>55.8556783922552</v>
       </c>
       <c r="K20" t="n">
         <v>32.46215428776603</v>
@@ -9409,19 +9409,19 @@
         <v>2.997665966800355</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>45.2631629747018</v>
       </c>
       <c r="N20" t="n">
         <v>40.13910122479049</v>
       </c>
       <c r="O20" t="n">
-        <v>23.85105383670186</v>
+        <v>55.49144958154949</v>
       </c>
       <c r="P20" t="n">
-        <v>19.12370394344487</v>
+        <v>90.05417072361182</v>
       </c>
       <c r="Q20" t="n">
-        <v>136.9374579818294</v>
+        <v>63.02044523197119</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9485,19 +9485,19 @@
         <v>10.40235109456995</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>41.11381191509898</v>
       </c>
       <c r="M21" t="n">
-        <v>9.036710223845958</v>
+        <v>16.08483250952182</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>9.02619650174492</v>
       </c>
       <c r="P21" t="n">
-        <v>57.18813070251974</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>39.24061609777205</v>
@@ -9561,22 +9561,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>52.1425041625675</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L22" t="n">
-        <v>110.4335895752039</v>
+        <v>36.51657682534571</v>
       </c>
       <c r="M22" t="n">
-        <v>35.21041529663556</v>
+        <v>109.1274280464937</v>
       </c>
       <c r="N22" t="n">
-        <v>97.36676224570336</v>
+        <v>100.3533082153946</v>
       </c>
       <c r="O22" t="n">
         <v>118.853482084652</v>
       </c>
       <c r="P22" t="n">
-        <v>131.6224415781917</v>
+        <v>74.03463342641538</v>
       </c>
       <c r="Q22" t="n">
         <v>65.34295837775146</v>
@@ -9640,13 +9640,13 @@
         <v>55.8556783922552</v>
       </c>
       <c r="K23" t="n">
-        <v>165.0203356330107</v>
+        <v>175.1116079910094</v>
       </c>
       <c r="L23" t="n">
         <v>170.8547888118915</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>139.2032730699347</v>
       </c>
       <c r="N23" t="n">
         <v>134.0792113200234</v>
@@ -9658,7 +9658,7 @@
         <v>19.12370394344487</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>63.02044523197119</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>52.27518561990742</v>
       </c>
       <c r="K24" t="n">
         <v>10.40235109456995</v>
@@ -9734,10 +9734,10 @@
         <v>122.6817346140075</v>
       </c>
       <c r="P24" t="n">
-        <v>106.6382149586088</v>
+        <v>12.59694183401914</v>
       </c>
       <c r="Q24" t="n">
-        <v>39.24061609777205</v>
+        <v>207.0977389428631</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9874,16 +9874,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>55.8556783922552</v>
       </c>
       <c r="K26" t="n">
         <v>32.46215428776603</v>
       </c>
       <c r="L26" t="n">
-        <v>50.83174605853384</v>
+        <v>170.8547888118915</v>
       </c>
       <c r="M26" t="n">
-        <v>139.2032730699347</v>
+        <v>132.4211670963957</v>
       </c>
       <c r="N26" t="n">
         <v>134.0792113200234</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>52.27518561990742</v>
       </c>
       <c r="K27" t="n">
         <v>10.40235109456995</v>
@@ -9962,16 +9962,16 @@
         <v>135.0539220103319</v>
       </c>
       <c r="M27" t="n">
-        <v>106.6382149586088</v>
+        <v>58.06744840013212</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>93.94011009523291</v>
       </c>
       <c r="O27" t="n">
-        <v>122.6817346140075</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>151.1282407977527</v>
       </c>
       <c r="Q27" t="n">
         <v>39.24061609777205</v>
@@ -10041,7 +10041,7 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M28" t="n">
-        <v>178.5096609094457</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N28" t="n">
         <v>171.8177168444618</v>
@@ -10117,19 +10117,19 @@
         <v>32.46215428776603</v>
       </c>
       <c r="L29" t="n">
-        <v>2.997665966800355</v>
+        <v>14.77813741041887</v>
       </c>
       <c r="M29" t="n">
         <v>139.2032730699347</v>
       </c>
       <c r="N29" t="n">
-        <v>127.4341195953333</v>
+        <v>134.0792113200234</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>149.4315596767825</v>
       </c>
       <c r="P29" t="n">
-        <v>186.980826788536</v>
+        <v>19.12370394344487</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10193,25 +10193,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>10.40235109456995</v>
+        <v>96.89415722767232</v>
       </c>
       <c r="L30" t="n">
-        <v>135.0539220103319</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>110.0249426047548</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>122.6817346140075</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>106.6382149586088</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>39.24061609777205</v>
+        <v>207.0977389428631</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10348,22 +10348,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>55.8556783922552</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>193.6741854081671</v>
+        <v>200.3192771328571</v>
       </c>
       <c r="L32" t="n">
         <v>2.997665966800355</v>
       </c>
       <c r="M32" t="n">
-        <v>139.2032730699347</v>
+        <v>3.964896208666978</v>
       </c>
       <c r="N32" t="n">
-        <v>134.0792113200234</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>149.4315596767825</v>
       </c>
       <c r="P32" t="n">
         <v>19.12370394344487</v>
@@ -10430,10 +10430,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>178.2594739396611</v>
+        <v>10.40235109456995</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>45.38850794010442</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10442,13 +10442,13 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>45.38850794010442</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>151.1282407977527</v>
       </c>
       <c r="Q33" t="n">
-        <v>39.24061609777205</v>
+        <v>207.0977389428631</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10509,7 +10509,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>106.7437663446526</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L34" t="n">
         <v>162.4747015415544</v>
@@ -10594,19 +10594,19 @@
         <v>2.997665966800355</v>
       </c>
       <c r="M35" t="n">
-        <v>81.37109282959838</v>
+        <v>81.37109282959841</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>76.2470310796871</v>
       </c>
       <c r="O35" t="n">
-        <v>91.59937943644607</v>
+        <v>91.5993794364461</v>
       </c>
       <c r="P35" t="n">
-        <v>129.1486465481996</v>
+        <v>124.7031943217449</v>
       </c>
       <c r="Q35" t="n">
-        <v>134.8220240852035</v>
+        <v>63.02044523197119</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10667,22 +10667,22 @@
         <v>52.27518561990742</v>
       </c>
       <c r="K36" t="n">
-        <v>10.40235109456995</v>
+        <v>120.4272936993247</v>
       </c>
       <c r="L36" t="n">
-        <v>77.22174176999556</v>
+        <v>77.22174176999559</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>21.95096971443827</v>
       </c>
       <c r="N36" t="n">
-        <v>36.10792985489658</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>2.571921906880071</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>93.29606055741633</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>39.24061609777205</v>
@@ -10752,13 +10752,13 @@
         <v>146.5415194301005</v>
       </c>
       <c r="M37" t="n">
-        <v>63.48877118922799</v>
+        <v>145.2353579013903</v>
       </c>
       <c r="N37" t="n">
-        <v>136.4612380702912</v>
+        <v>54.7146513581289</v>
       </c>
       <c r="O37" t="n">
-        <v>154.9614119395486</v>
+        <v>154.9614119395487</v>
       </c>
       <c r="P37" t="n">
         <v>135.0065633140411</v>
@@ -10822,25 +10822,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>165.8806209970099</v>
+        <v>55.8556783922552</v>
       </c>
       <c r="K38" t="n">
-        <v>32.46215428776603</v>
+        <v>142.4870968925208</v>
       </c>
       <c r="L38" t="n">
         <v>2.997665966800355</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>81.37109282959841</v>
       </c>
       <c r="N38" t="n">
-        <v>76.24703107968708</v>
+        <v>71.80157885323239</v>
       </c>
       <c r="O38" t="n">
-        <v>58.50007743483495</v>
+        <v>91.5993794364461</v>
       </c>
       <c r="P38" t="n">
-        <v>129.1486465481996</v>
+        <v>19.12370394344487</v>
       </c>
       <c r="Q38" t="n">
         <v>63.02044523197119</v>
@@ -10904,10 +10904,10 @@
         <v>52.27518561990742</v>
       </c>
       <c r="K39" t="n">
-        <v>10.40235109456995</v>
+        <v>120.4272936993247</v>
       </c>
       <c r="L39" t="n">
-        <v>77.22174176999556</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10916,13 +10916,13 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>64.84955437367117</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>67.12635794552187</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>39.24061609777205</v>
+        <v>138.4133275822059</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10986,16 +10986,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L40" t="n">
-        <v>146.5415194301005</v>
+        <v>120.2186131406079</v>
       </c>
       <c r="M40" t="n">
         <v>145.2353579013903</v>
       </c>
       <c r="N40" t="n">
-        <v>110.1383317807986</v>
+        <v>26.43629546553645</v>
       </c>
       <c r="O40" t="n">
-        <v>44.93646933479387</v>
+        <v>154.9614119395487</v>
       </c>
       <c r="P40" t="n">
         <v>135.0065633140411</v>
@@ -11059,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>55.8556783922552</v>
+        <v>149.7957884874882</v>
       </c>
       <c r="K41" t="n">
-        <v>32.46215428776603</v>
+        <v>126.402264382999</v>
       </c>
       <c r="L41" t="n">
-        <v>2.997665966800355</v>
+        <v>12.28489158965274</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>27.71278879116119</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>75.51454692692437</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>113.0638140386779</v>
+        <v>113.0638140386778</v>
       </c>
       <c r="Q41" t="n">
-        <v>156.9605553272042</v>
+        <v>63.02044523197119</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11144,19 +11144,19 @@
         <v>10.40235109456995</v>
       </c>
       <c r="L42" t="n">
-        <v>61.13690926047386</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>35.60658514908532</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>20.02309734537479</v>
       </c>
       <c r="O42" t="n">
-        <v>48.76472186414946</v>
+        <v>48.76472186414938</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>76.72039706418413</v>
       </c>
       <c r="Q42" t="n">
         <v>39.24061609777205</v>
@@ -11220,22 +11220,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>106.7437663446525</v>
+        <v>52.1425041625675</v>
       </c>
       <c r="L43" t="n">
-        <v>130.4566869205788</v>
+        <v>130.4566869205787</v>
       </c>
       <c r="M43" t="n">
-        <v>35.21041529663556</v>
+        <v>48.0538309023131</v>
       </c>
       <c r="N43" t="n">
-        <v>120.3764055607695</v>
+        <v>120.3764055607694</v>
       </c>
       <c r="O43" t="n">
-        <v>138.8765794300269</v>
+        <v>138.8765794300268</v>
       </c>
       <c r="P43" t="n">
-        <v>93.24871673763373</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q43" t="n">
         <v>65.34295837775146</v>
@@ -11296,25 +11296,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>149.7957884874883</v>
+        <v>149.7957884874882</v>
       </c>
       <c r="K44" t="n">
         <v>32.46215428776603</v>
       </c>
       <c r="L44" t="n">
-        <v>96.93777606203341</v>
+        <v>2.997665966800355</v>
       </c>
       <c r="M44" t="n">
-        <v>65.28626032007668</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>27.71278879116106</v>
       </c>
       <c r="O44" t="n">
-        <v>37.94107539800891</v>
+        <v>75.51454692692431</v>
       </c>
       <c r="P44" t="n">
-        <v>19.12370394344487</v>
+        <v>113.0638140386778</v>
       </c>
       <c r="Q44" t="n">
         <v>63.02044523197119</v>
@@ -11381,7 +11381,7 @@
         <v>10.40235109456995</v>
       </c>
       <c r="L45" t="n">
-        <v>51.56810617847559</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>77.21122804789454</v>
       </c>
       <c r="Q45" t="n">
-        <v>133.1807261930051</v>
+        <v>107.5376043235859</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11457,22 +11457,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>106.7437663446525</v>
+        <v>52.1425041625675</v>
       </c>
       <c r="L46" t="n">
-        <v>130.4566869205788</v>
+        <v>130.4566869205787</v>
       </c>
       <c r="M46" t="n">
-        <v>129.1505253918686</v>
+        <v>125.3549653880207</v>
       </c>
       <c r="N46" t="n">
-        <v>78.61855898436212</v>
+        <v>120.3764055607694</v>
       </c>
       <c r="O46" t="n">
-        <v>44.93646933479387</v>
+        <v>138.8765794300268</v>
       </c>
       <c r="P46" t="n">
-        <v>135.0065633140411</v>
+        <v>57.7054288283335</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -23275,10 +23275,10 @@
         <v>413.8277204912092</v>
       </c>
       <c r="H11" t="n">
-        <v>272.8120992354256</v>
+        <v>266.5366037791497</v>
       </c>
       <c r="I11" t="n">
-        <v>95.77811551516618</v>
+        <v>153.6102957555026</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23314,7 +23314,7 @@
         <v>216.6389625418957</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2276515459224</v>
+        <v>199.6709667618621</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23336,13 +23336,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>108.701003409531</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>114.8763187479794</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>89.6128853243024</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>51.15797734664877</v>
+        <v>0.2193929909605643</v>
       </c>
       <c r="S12" t="n">
         <v>157.0240588141101</v>
@@ -23393,19 +23393,19 @@
         <v>196.9836840208523</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8894607859699</v>
+        <v>168.0572805456335</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>174.9684069090889</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>147.9408049631411</v>
       </c>
       <c r="Y12" t="n">
-        <v>154.7441114216161</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23421,25 +23421,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>90.78329277787603</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>126.2539383526385</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>109.4971572604638</v>
+        <v>167.3293375008002</v>
       </c>
       <c r="H13" t="n">
-        <v>98.51239465992069</v>
+        <v>156.344574900257</v>
       </c>
       <c r="I13" t="n">
-        <v>77.72091954933524</v>
+        <v>135.5530997896716</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>46.5811007802122</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>30.75856006175758</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>147.5435674864489</v>
@@ -23472,13 +23472,13 @@
         <v>225.1185742182858</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2829398006186</v>
+        <v>228.4507595602823</v>
       </c>
       <c r="V13" t="n">
-        <v>247.7801597483519</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>228.6908180962547</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>331.7952573077923</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23506,7 +23506,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>349.0438655013751</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>355.9955402508728</v>
@@ -23542,13 +23542,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>57.2140798119642</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>175.4081191535338</v>
+        <v>117.5759389131975</v>
       </c>
       <c r="T14" t="n">
-        <v>216.6389625418957</v>
+        <v>165.0822777578353</v>
       </c>
       <c r="U14" t="n">
         <v>251.2276515459224</v>
@@ -23563,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>328.4057584157172</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23621,22 +23621,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.2193929909605288</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>99.19187857377372</v>
       </c>
       <c r="T15" t="n">
-        <v>139.151503780516</v>
+        <v>196.9836840208523</v>
       </c>
       <c r="U15" t="n">
         <v>225.8894607859699</v>
       </c>
       <c r="V15" t="n">
-        <v>174.9684069090889</v>
+        <v>175.1877999000495</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>193.8628029205832</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23667,10 +23667,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>109.4971572604638</v>
+        <v>167.3293375008002</v>
       </c>
       <c r="H16" t="n">
-        <v>136.1645506063264</v>
+        <v>156.344574900257</v>
       </c>
       <c r="I16" t="n">
         <v>77.72091954933524</v>
@@ -23697,22 +23697,22 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>30.75856006175758</v>
       </c>
       <c r="R16" t="n">
-        <v>89.71138724611254</v>
+        <v>147.5435674864489</v>
       </c>
       <c r="S16" t="n">
         <v>212.4859849357771</v>
       </c>
       <c r="T16" t="n">
-        <v>225.1185742182858</v>
+        <v>167.2863939779494</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2829398006186</v>
+        <v>228.4507595602822</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>201.1990589681398</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23734,19 +23734,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>357.3808667528967</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>316.8242652421867</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>332.9590329918533</v>
       </c>
       <c r="G17" t="n">
-        <v>339.910707741351</v>
+        <v>413.8277204912092</v>
       </c>
       <c r="H17" t="n">
         <v>324.368784019486</v>
@@ -23779,19 +23779,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>57.2140798119642</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>175.4081191535338</v>
+        <v>101.4911064036757</v>
       </c>
       <c r="T17" t="n">
         <v>216.6389625418957</v>
       </c>
       <c r="U17" t="n">
-        <v>177.3106387960642</v>
+        <v>251.2276515459224</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>253.8352457202767</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23813,10 +23813,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>98.79148623845757</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>73.52805281478058</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -23858,25 +23858,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>51.15797734664877</v>
       </c>
       <c r="S18" t="n">
         <v>157.0240588141101</v>
       </c>
       <c r="T18" t="n">
-        <v>123.0666712709942</v>
+        <v>131.8775791907772</v>
       </c>
       <c r="U18" t="n">
         <v>225.8894607859699</v>
       </c>
       <c r="V18" t="n">
-        <v>158.8835743995671</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>177.7779704110614</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>191.8248577200512</v>
+        <v>131.8559724536193</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23901,7 +23901,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>71.50403527307307</v>
       </c>
       <c r="G19" t="n">
         <v>167.3293375008002</v>
@@ -23934,28 +23934,28 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>30.75856006175758</v>
       </c>
       <c r="R19" t="n">
-        <v>73.62655473659072</v>
+        <v>147.5435674864489</v>
       </c>
       <c r="S19" t="n">
-        <v>138.5689721859189</v>
+        <v>212.4859849357771</v>
       </c>
       <c r="T19" t="n">
-        <v>151.2015614684276</v>
+        <v>225.1185742182858</v>
       </c>
       <c r="U19" t="n">
-        <v>251.9353950323011</v>
+        <v>286.2829398006186</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>178.2206305739698</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>221.4168935065159</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>151.792642639179</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>308.8168289136224</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>291.3558790211493</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>308.0133573224036</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>332.9590329918533</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>339.910707741351</v>
+        <v>413.8277204912092</v>
       </c>
       <c r="H20" t="n">
-        <v>259.262679189411</v>
+        <v>250.4517712696278</v>
       </c>
       <c r="I20" t="n">
         <v>153.6102957555025</v>
@@ -24016,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>57.2140798119642</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>175.4081191535338</v>
@@ -24034,7 +24034,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>361.8390756603582</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24047,10 +24047,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>101.4270788197923</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>158.7603715048895</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24095,16 +24095,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>51.15797734664877</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>83.1070460642519</v>
+        <v>157.0240588141101</v>
       </c>
       <c r="T21" t="n">
-        <v>123.0666712709942</v>
+        <v>196.9836840208523</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8894607859699</v>
+        <v>151.9724480361117</v>
       </c>
       <c r="V21" t="n">
         <v>158.8835743995671</v>
@@ -24113,7 +24113,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>131.8559724536193</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.9149674320791</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24141,10 +24141,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3293375008002</v>
+        <v>102.2232326707251</v>
       </c>
       <c r="H22" t="n">
-        <v>82.42756215039887</v>
+        <v>156.344574900257</v>
       </c>
       <c r="I22" t="n">
         <v>135.5530997896716</v>
@@ -24174,28 +24174,28 @@
         <v>30.75856006175758</v>
       </c>
       <c r="R22" t="n">
-        <v>147.5435674864489</v>
+        <v>73.62655473659072</v>
       </c>
       <c r="S22" t="n">
         <v>212.4859849357771</v>
       </c>
       <c r="T22" t="n">
-        <v>225.1185742182858</v>
+        <v>151.2015614684276</v>
       </c>
       <c r="U22" t="n">
-        <v>221.1768349705435</v>
+        <v>286.2829398006186</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>212.6059855867328</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>144.6676406022366</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24208,7 +24208,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>197.4157689259164</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24217,16 +24217,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>239.0189228966203</v>
       </c>
       <c r="G23" t="n">
-        <v>251.7323395996643</v>
+        <v>245.9705976461181</v>
       </c>
       <c r="H23" t="n">
-        <v>156.5116611743949</v>
+        <v>324.368784019486</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>153.6102957555025</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24268,13 +24268,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>181.3838458723219</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>238.3893848540974</v>
       </c>
     </row>
     <row r="24">
@@ -24287,16 +24287,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>4.851376143224627</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>136.5543134791356</v>
@@ -24305,7 +24305,7 @@
         <v>104.6133981297714</v>
       </c>
       <c r="I24" t="n">
-        <v>39.03308977647232</v>
+        <v>62.22448846549705</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24335,16 +24335,16 @@
         <v>51.15797734664877</v>
       </c>
       <c r="S24" t="n">
-        <v>157.0240588141101</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>196.9836840208523</v>
+        <v>29.12656117576122</v>
       </c>
       <c r="U24" t="n">
-        <v>225.8894607859699</v>
+        <v>58.03233794087876</v>
       </c>
       <c r="V24" t="n">
-        <v>64.94346430433416</v>
+        <v>231.7640497718889</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -24366,10 +24366,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0.1566174697928489</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,10 +24378,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.3293375008002</v>
       </c>
       <c r="H25" t="n">
-        <v>7.968235754009868</v>
+        <v>156.344574900257</v>
       </c>
       <c r="I25" t="n">
         <v>135.5530997896716</v>
@@ -24420,16 +24420,16 @@
         <v>225.1185742182858</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2829398006186</v>
+        <v>118.4258169555275</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>84.28052047873689</v>
       </c>
       <c r="W25" t="n">
-        <v>118.6658754914999</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>57.85253254394604</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24457,13 +24457,13 @@
         <v>239.0189228966203</v>
       </c>
       <c r="G26" t="n">
-        <v>413.8277204912092</v>
+        <v>245.9705976461181</v>
       </c>
       <c r="H26" t="n">
         <v>324.368784019486</v>
       </c>
       <c r="I26" t="n">
-        <v>153.6102957555025</v>
+        <v>62.97582176551056</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,19 +24490,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>57.2140798119642</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>175.4081191535338</v>
       </c>
       <c r="T26" t="n">
-        <v>68.79040873993949</v>
+        <v>48.78183969680461</v>
       </c>
       <c r="U26" t="n">
-        <v>83.3705287008313</v>
+        <v>251.2276515459224</v>
       </c>
       <c r="V26" t="n">
-        <v>159.8951356250438</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24521,13 +24521,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -24536,13 +24536,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>136.5543134791356</v>
+        <v>29.19425166700026</v>
       </c>
       <c r="H27" t="n">
         <v>104.6133981297714</v>
       </c>
       <c r="I27" t="n">
-        <v>62.22448846549705</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24572,19 +24572,19 @@
         <v>51.15797734664877</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>157.0240588141101</v>
       </c>
       <c r="T27" t="n">
-        <v>196.9836840208523</v>
+        <v>29.12656117576122</v>
       </c>
       <c r="U27" t="n">
-        <v>58.03233794087876</v>
+        <v>225.8894607859699</v>
       </c>
       <c r="V27" t="n">
-        <v>74.11896931648803</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>83.83786031582849</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3293375008002</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>156.344574900257</v>
@@ -24624,7 +24624,7 @@
         <v>135.5530997896716</v>
       </c>
       <c r="J28" t="n">
-        <v>46.58110078021219</v>
+        <v>45.74832912041403</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24648,22 +24648,22 @@
         <v>30.75856006175758</v>
       </c>
       <c r="R28" t="n">
-        <v>147.5435674864489</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>44.62886209068597</v>
+        <v>212.4859849357771</v>
       </c>
       <c r="T28" t="n">
-        <v>225.1185742182858</v>
+        <v>57.26145137319469</v>
       </c>
       <c r="U28" t="n">
-        <v>118.4258169555275</v>
+        <v>286.2829398006186</v>
       </c>
       <c r="V28" t="n">
         <v>84.28052047873689</v>
       </c>
       <c r="W28" t="n">
-        <v>138.6744445346347</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>214.8767188183895</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24691,13 +24691,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>316.2415717517194</v>
       </c>
       <c r="G29" t="n">
-        <v>245.9705976461181</v>
+        <v>413.8277204912092</v>
       </c>
       <c r="H29" t="n">
-        <v>176.5202302175297</v>
+        <v>324.368784019486</v>
       </c>
       <c r="I29" t="n">
         <v>153.6102957555025</v>
@@ -24727,25 +24727,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>57.2140798119642</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>175.4081191535338</v>
+        <v>7.550996308442734</v>
       </c>
       <c r="T29" t="n">
         <v>216.6389625418957</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2276515459224</v>
+        <v>83.3705287008313</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>181.3838458723219</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>201.8739778333779</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24758,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>7.851565816930105</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -24809,13 +24809,13 @@
         <v>51.15797734664877</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>157.0240588141101</v>
       </c>
       <c r="T30" t="n">
-        <v>29.12656117576122</v>
+        <v>196.9836840208523</v>
       </c>
       <c r="U30" t="n">
-        <v>225.8894607859699</v>
+        <v>78.04090698401365</v>
       </c>
       <c r="V30" t="n">
         <v>64.94346430433416</v>
@@ -24824,10 +24824,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>37.91586235838636</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>37.82557293221325</v>
       </c>
     </row>
     <row r="31">
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.3293375008002</v>
       </c>
       <c r="H31" t="n">
         <v>156.344574900257</v>
@@ -24882,28 +24882,28 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.92578840195925</v>
+        <v>30.75856006175758</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>147.5435674864489</v>
       </c>
       <c r="S31" t="n">
-        <v>44.62886209068597</v>
+        <v>212.4859849357771</v>
       </c>
       <c r="T31" t="n">
-        <v>225.1185742182858</v>
+        <v>77.27002041632957</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2829398006186</v>
+        <v>118.4258169555275</v>
       </c>
       <c r="V31" t="n">
-        <v>84.28052047873689</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>118.6658754914999</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>57.85253254394604</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24916,16 +24916,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>214.8767188183895</v>
       </c>
       <c r="C32" t="n">
-        <v>217.4243379690513</v>
+        <v>197.4157689259164</v>
       </c>
       <c r="D32" t="n">
-        <v>186.8259187755918</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>214.0732472271707</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -24964,25 +24964,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>57.2140798119642</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>175.4081191535338</v>
       </c>
       <c r="T32" t="n">
-        <v>216.6389625418957</v>
+        <v>48.78183969680461</v>
       </c>
       <c r="U32" t="n">
         <v>251.2276515459224</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>237.1177844801429</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>201.8739778333779</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24995,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -25004,7 +25004,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>59.63056480486973</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25043,19 +25043,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>51.15797734664877</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>157.0240588141101</v>
       </c>
       <c r="T33" t="n">
         <v>29.12656117576122</v>
       </c>
       <c r="U33" t="n">
-        <v>225.8894607859699</v>
+        <v>58.03233794087876</v>
       </c>
       <c r="V33" t="n">
-        <v>64.94346430433416</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -25064,7 +25064,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>47.00107794436713</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25092,7 +25092,7 @@
         <v>167.3293375008002</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>8.496021098300787</v>
       </c>
       <c r="I34" t="n">
         <v>135.5530997896716</v>
@@ -25128,7 +25128,7 @@
         <v>212.4859849357771</v>
       </c>
       <c r="T34" t="n">
-        <v>225.1185742182858</v>
+        <v>57.26145137319469</v>
       </c>
       <c r="U34" t="n">
         <v>286.2829398006186</v>
@@ -25137,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>127.1618965898007</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>57.85253254394604</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>285.8238722172126</v>
+        <v>272.7088990587258</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25204,10 +25204,10 @@
         <v>57.2140798119642</v>
       </c>
       <c r="S35" t="n">
-        <v>175.4081191535338</v>
+        <v>78.4981497072659</v>
       </c>
       <c r="T35" t="n">
-        <v>216.6389625418957</v>
+        <v>106.6140199371409</v>
       </c>
       <c r="U35" t="n">
         <v>251.2276515459224</v>
@@ -25216,10 +25216,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>239.2160261126583</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>259.7061580737143</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>276.2129960512988</v>
@@ -25250,10 +25250,10 @@
         <v>136.5543134791356</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>104.6133981297714</v>
       </c>
       <c r="I36" t="n">
-        <v>11.06095189089456</v>
+        <v>62.22448846549705</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,28 +25280,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>51.15797734664877</v>
       </c>
       <c r="S36" t="n">
         <v>157.0240588141101</v>
       </c>
       <c r="T36" t="n">
-        <v>196.9836840208523</v>
+        <v>86.95874141609755</v>
       </c>
       <c r="U36" t="n">
         <v>225.8894607859699</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>122.7756445446705</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>154.7850137146517</v>
       </c>
       <c r="X36" t="n">
-        <v>95.74804259872272</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>95.6577531725496</v>
+        <v>95.65775317254958</v>
       </c>
     </row>
     <row r="37">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.92201073566935</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25320,10 +25320,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>36.40902004181439</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>48.51107857666329</v>
       </c>
       <c r="G37" t="n">
         <v>167.3293375008002</v>
@@ -25371,13 +25371,13 @@
         <v>176.2579971958638</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>142.1127007190732</v>
       </c>
       <c r="W37" t="n">
-        <v>176.4980557318362</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>115.6847127842824</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25402,10 +25402,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>296.8511031369567</v>
       </c>
       <c r="G38" t="n">
-        <v>413.8277204912092</v>
+        <v>303.8027778864544</v>
       </c>
       <c r="H38" t="n">
         <v>324.368784019486</v>
@@ -25438,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>57.2140798119642</v>
       </c>
       <c r="S38" t="n">
-        <v>175.4081191535338</v>
+        <v>65.38317654877906</v>
       </c>
       <c r="T38" t="n">
-        <v>216.6389625418957</v>
+        <v>119.7289930956278</v>
       </c>
       <c r="U38" t="n">
         <v>251.2276515459224</v>
       </c>
       <c r="V38" t="n">
-        <v>217.7273158653801</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>239.2160261126583</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>259.7061580737143</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>346.5420490217498</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25472,16 +25472,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>75.79852954204779</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>47.62013785064616</v>
       </c>
       <c r="F39" t="n">
-        <v>35.04426978862912</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>136.5543134791356</v>
@@ -25523,19 +25523,19 @@
         <v>157.0240588141101</v>
       </c>
       <c r="T39" t="n">
-        <v>86.95874141609758</v>
+        <v>196.9836840208523</v>
       </c>
       <c r="U39" t="n">
-        <v>225.8894607859699</v>
+        <v>115.8645181812151</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>122.7756445446705</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>154.7850137146517</v>
       </c>
       <c r="X39" t="n">
-        <v>95.74804259872272</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>69.80703757718254</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>57.22187849387308</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>51.7055035719444</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>35.39610541817649</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>167.3293375008002</v>
@@ -25569,7 +25569,7 @@
         <v>156.344574900257</v>
       </c>
       <c r="I40" t="n">
-        <v>135.5530997896716</v>
+        <v>25.52815718491681</v>
       </c>
       <c r="J40" t="n">
         <v>46.58110078021219</v>
@@ -25599,13 +25599,13 @@
         <v>147.5435674864489</v>
       </c>
       <c r="S40" t="n">
-        <v>212.4859849357771</v>
+        <v>115.5760154895091</v>
       </c>
       <c r="T40" t="n">
         <v>225.1185742182858</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2829398006186</v>
+        <v>176.2579971958638</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25614,7 +25614,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>115.6847127842824</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25630,22 +25630,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>271.3327816757746</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>260.74293152545</v>
       </c>
       <c r="E41" t="n">
-        <v>287.9902599770287</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>312.9359356464784</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>319.8876103959761</v>
+        <v>413.8277204912092</v>
       </c>
       <c r="H41" t="n">
-        <v>241.6263350476047</v>
+        <v>324.368784019486</v>
       </c>
       <c r="I41" t="n">
         <v>153.6102957555025</v>
@@ -25687,10 +25687,10 @@
         <v>251.2276515459224</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>233.8121483749019</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>266.4985197455318</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25706,19 +25706,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>72.59307355463437</v>
       </c>
       <c r="C42" t="n">
-        <v>141.1240273630833</v>
+        <v>78.76838889308277</v>
       </c>
       <c r="D42" t="n">
-        <v>53.5049554694057</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>63.70497036016789</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>51.12910229815083</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>136.5543134791356</v>
@@ -25772,10 +25772,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>174.1885135782451</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>111.7425856820714</v>
       </c>
     </row>
     <row r="43">
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3293375008002</v>
+        <v>73.38922740556723</v>
       </c>
       <c r="H43" t="n">
         <v>156.344574900257</v>
@@ -25830,22 +25830,22 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>30.75856006175758</v>
       </c>
       <c r="R43" t="n">
-        <v>53.60345739121584</v>
+        <v>147.5435674864489</v>
       </c>
       <c r="S43" t="n">
-        <v>118.545874840544</v>
+        <v>212.4859849357771</v>
       </c>
       <c r="T43" t="n">
-        <v>131.1784641230527</v>
+        <v>131.1784641230528</v>
       </c>
       <c r="U43" t="n">
-        <v>234.2990508904949</v>
+        <v>192.3428297053856</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>169.3951943519468</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>288.7937315682476</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>260.74293152545</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25885,7 +25885,7 @@
         <v>324.368784019486</v>
       </c>
       <c r="I44" t="n">
-        <v>128.0819265955855</v>
+        <v>128.0819265955856</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>81.46800905830079</v>
+        <v>175.4081191535338</v>
       </c>
       <c r="T44" t="n">
-        <v>122.6988524466627</v>
+        <v>216.6389625418957</v>
       </c>
       <c r="U44" t="n">
-        <v>157.2875414506894</v>
+        <v>251.2276515459224</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>233.8121483749019</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25943,10 +25943,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>72.59307355463429</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>141.1240273630832</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25961,10 +25961,10 @@
         <v>136.5543134791356</v>
       </c>
       <c r="H45" t="n">
-        <v>104.6133981297714</v>
+        <v>10.67328803453846</v>
       </c>
       <c r="I45" t="n">
-        <v>62.22448846549705</v>
+        <v>30.64001684026468</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25994,10 +25994,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>63.08394871887702</v>
+        <v>63.08394871887711</v>
       </c>
       <c r="T45" t="n">
-        <v>196.9836840208523</v>
+        <v>103.0435739256194</v>
       </c>
       <c r="U45" t="n">
         <v>225.8894607859699</v>
@@ -26012,7 +26012,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>111.7425856820713</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>85.89187008670424</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26037,16 +26037,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>161.9265493708887</v>
+        <v>167.3293375008002</v>
       </c>
       <c r="H46" t="n">
-        <v>62.40446480502399</v>
+        <v>156.344574900257</v>
       </c>
       <c r="I46" t="n">
-        <v>41.61298969443854</v>
+        <v>135.5530997896716</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>46.58110078021219</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,10 +26067,10 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>30.75856006175758</v>
       </c>
       <c r="R46" t="n">
-        <v>147.5435674864489</v>
+        <v>53.60345739121593</v>
       </c>
       <c r="S46" t="n">
         <v>212.4859849357771</v>
@@ -26079,13 +26079,13 @@
         <v>225.1185742182858</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2829398006186</v>
+        <v>192.3428297053856</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>169.3951943519468</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>192.582888241358</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>315293.3821991893</v>
+        <v>315293.3821991892</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>328321.7658082486</v>
+        <v>328321.7658082487</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>405904.9712133713</v>
+        <v>405904.9712133712</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>405904.9712133711</v>
+        <v>405904.9712133712</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>405904.9712133712</v>
+        <v>405904.9712133711</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>405904.9712133713</v>
+        <v>405904.9712133712</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>358142.5626526028</v>
+        <v>358142.562652603</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>358142.562652603</v>
+        <v>358142.5626526028</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>553011.5286340012</v>
+        <v>553011.5286340009</v>
       </c>
       <c r="C2" t="n">
-        <v>553011.5286340009</v>
+        <v>553011.5286340008</v>
       </c>
       <c r="D2" t="n">
         <v>553011.528634001</v>
       </c>
       <c r="E2" t="n">
+        <v>185673.6813706744</v>
+      </c>
+      <c r="F2" t="n">
         <v>185673.6813706745</v>
       </c>
-      <c r="F2" t="n">
-        <v>185673.6813706744</v>
-      </c>
       <c r="G2" t="n">
+        <v>191825.3712448654</v>
+      </c>
+      <c r="H2" t="n">
         <v>191825.3712448653</v>
-      </c>
-      <c r="H2" t="n">
-        <v>191825.3712448654</v>
       </c>
       <c r="I2" t="n">
         <v>227753.0331406999</v>
       </c>
       <c r="J2" t="n">
-        <v>227753.0331407</v>
+        <v>227753.0331406999</v>
       </c>
       <c r="K2" t="n">
         <v>227753.0331407</v>
       </c>
       <c r="L2" t="n">
-        <v>227753.0331407</v>
+        <v>227753.0331406999</v>
       </c>
       <c r="M2" t="n">
-        <v>205634.9515643914</v>
+        <v>205634.9515643913</v>
       </c>
       <c r="N2" t="n">
         <v>205634.9515643914</v>
       </c>
       <c r="O2" t="n">
-        <v>199483.2616902005</v>
+        <v>199483.2616902004</v>
       </c>
       <c r="P2" t="n">
-        <v>199483.2616902005</v>
+        <v>199483.2616902004</v>
       </c>
     </row>
     <row r="3">
@@ -26374,19 +26374,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>312044.4008524932</v>
+        <v>312044.4008524931</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4408.611318372255</v>
+        <v>4408.61131837229</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>24980.64801663452</v>
+        <v>24980.64801663444</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>425523.1391661035</v>
       </c>
       <c r="E4" t="n">
-        <v>19641.00187157551</v>
+        <v>19641.00187157552</v>
       </c>
       <c r="F4" t="n">
         <v>19641.00187157551</v>
       </c>
       <c r="G4" t="n">
-        <v>22886.19774195325</v>
+        <v>22886.19774195326</v>
       </c>
       <c r="H4" t="n">
-        <v>22886.19774195325</v>
+        <v>22886.19774195326</v>
       </c>
       <c r="I4" t="n">
         <v>43332.73525140117</v>
       </c>
       <c r="J4" t="n">
+        <v>43332.73525140118</v>
+      </c>
+      <c r="K4" t="n">
         <v>43332.73525140117</v>
       </c>
-      <c r="K4" t="n">
-        <v>43332.73525140118</v>
-      </c>
       <c r="L4" t="n">
-        <v>43332.73525140118</v>
+        <v>43332.73525140117</v>
       </c>
       <c r="M4" t="n">
         <v>30745.27030870046</v>
       </c>
       <c r="N4" t="n">
-        <v>30745.27030870046</v>
+        <v>30745.27030870047</v>
       </c>
       <c r="O4" t="n">
-        <v>27244.32560142135</v>
+        <v>27244.32560142133</v>
       </c>
       <c r="P4" t="n">
-        <v>27244.32560142135</v>
+        <v>27244.32560142133</v>
       </c>
     </row>
     <row r="5">
@@ -26478,7 +26478,7 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>11514.84512510664</v>
+        <v>11514.84512510663</v>
       </c>
       <c r="F5" t="n">
         <v>11514.84512510664</v>
@@ -26508,10 +26508,10 @@
         <v>14688.16507686328</v>
       </c>
       <c r="O5" t="n">
-        <v>13710.20726028436</v>
+        <v>13710.20726028435</v>
       </c>
       <c r="P5" t="n">
-        <v>13710.20726028436</v>
+        <v>13710.20726028435</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>93860.78946789764</v>
+        <v>93816.65368921628</v>
       </c>
       <c r="C6" t="n">
-        <v>93860.78946789735</v>
+        <v>93816.65368921611</v>
       </c>
       <c r="D6" t="n">
-        <v>93860.78946789753</v>
+        <v>93816.6536892164</v>
       </c>
       <c r="E6" t="n">
-        <v>-157526.5664785008</v>
+        <v>-171175.8077113793</v>
       </c>
       <c r="F6" t="n">
-        <v>154517.8343739923</v>
+        <v>140868.593141114</v>
       </c>
       <c r="G6" t="n">
-        <v>152037.7592428543</v>
+        <v>138616.3583756867</v>
       </c>
       <c r="H6" t="n">
-        <v>156446.3705612266</v>
+        <v>143024.9696940589</v>
       </c>
       <c r="I6" t="n">
-        <v>141235.2882371885</v>
+        <v>129144.5415143111</v>
       </c>
       <c r="J6" t="n">
-        <v>166215.9362538231</v>
+        <v>154125.1895309456</v>
       </c>
       <c r="K6" t="n">
-        <v>166215.936253823</v>
+        <v>154125.1895309456</v>
       </c>
       <c r="L6" t="n">
-        <v>166215.9362538231</v>
+        <v>154125.1895309456</v>
       </c>
       <c r="M6" t="n">
-        <v>160201.5161788276</v>
+        <v>147291.5812494202</v>
       </c>
       <c r="N6" t="n">
-        <v>160201.5161788276</v>
+        <v>147291.5812494202</v>
       </c>
       <c r="O6" t="n">
-        <v>158528.7288284948</v>
+        <v>145390.9535333766</v>
       </c>
       <c r="P6" t="n">
-        <v>158528.7288284947</v>
+        <v>145390.9535333766</v>
       </c>
     </row>
   </sheetData>
@@ -26798,7 +26798,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>57.83218024033636</v>
+        <v>57.83218024033633</v>
       </c>
       <c r="F4" t="n">
         <v>57.83218024033636</v>
@@ -26828,10 +26828,10 @@
         <v>110.0249426047548</v>
       </c>
       <c r="O4" t="n">
-        <v>93.94011009523305</v>
+        <v>93.94011009523297</v>
       </c>
       <c r="P4" t="n">
-        <v>93.94011009523305</v>
+        <v>93.94011009523297</v>
       </c>
     </row>
   </sheetData>
@@ -27020,19 +27020,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>57.83218024033636</v>
+        <v>57.83218024033633</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>16.0848325095217</v>
+        <v>16.08483250952182</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>93.94011009523324</v>
+        <v>93.94011009523294</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>57.83218024033636</v>
+        <v>57.83218024033633</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>16.0848325095217</v>
+        <v>16.08483250952182</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31758,7 +31758,7 @@
         <v>15.10601809628114</v>
       </c>
       <c r="I11" t="n">
-        <v>56.86559381490337</v>
+        <v>56.86559381490336</v>
       </c>
       <c r="J11" t="n">
         <v>125.1902261344311</v>
@@ -31767,28 +31767,28 @@
         <v>187.6276967572145</v>
       </c>
       <c r="L11" t="n">
-        <v>232.7687490031869</v>
+        <v>232.7687490031868</v>
       </c>
       <c r="M11" t="n">
         <v>259.0000830024291</v>
       </c>
       <c r="N11" t="n">
-        <v>263.1909751216586</v>
+        <v>263.1909751216585</v>
       </c>
       <c r="O11" t="n">
         <v>248.5237745899954</v>
       </c>
       <c r="P11" t="n">
-        <v>212.1092918118247</v>
+        <v>212.1092918118246</v>
       </c>
       <c r="Q11" t="n">
         <v>159.2852446424783</v>
       </c>
       <c r="R11" t="n">
-        <v>92.65503812918548</v>
+        <v>92.65503812918547</v>
       </c>
       <c r="S11" t="n">
-        <v>33.61195043271151</v>
+        <v>33.6119504327115</v>
       </c>
       <c r="T11" t="n">
         <v>6.456887022235636</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7892036840750714</v>
+        <v>0.7892036840750712</v>
       </c>
       <c r="H12" t="n">
-        <v>7.622046106725032</v>
+        <v>7.622046106725031</v>
       </c>
       <c r="I12" t="n">
-        <v>27.17214438591803</v>
+        <v>27.17214438591802</v>
       </c>
       <c r="J12" t="n">
-        <v>74.56244104675928</v>
+        <v>74.56244104675926</v>
       </c>
       <c r="K12" t="n">
         <v>127.439087879789</v>
       </c>
       <c r="L12" t="n">
-        <v>171.3575806146334</v>
+        <v>171.3575806146333</v>
       </c>
       <c r="M12" t="n">
-        <v>199.9662141623547</v>
+        <v>199.9662141623546</v>
       </c>
       <c r="N12" t="n">
-        <v>189.1738923236697</v>
+        <v>189.1738923236696</v>
       </c>
       <c r="O12" t="n">
         <v>187.771632675528</v>
       </c>
       <c r="P12" t="n">
-        <v>150.7032894616687</v>
+        <v>150.7032894616686</v>
       </c>
       <c r="Q12" t="n">
         <v>100.7411579882495</v>
@@ -31910,22 +31910,22 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6616418576585656</v>
+        <v>0.6616418576585655</v>
       </c>
       <c r="H13" t="n">
-        <v>5.882597607182524</v>
+        <v>5.882597607182523</v>
       </c>
       <c r="I13" t="n">
         <v>19.89737513758669</v>
       </c>
       <c r="J13" t="n">
-        <v>46.77807933646059</v>
+        <v>46.77807933646058</v>
       </c>
       <c r="K13" t="n">
-        <v>76.87075400796788</v>
+        <v>76.87075400796786</v>
       </c>
       <c r="L13" t="n">
-        <v>98.36809945589258</v>
+        <v>98.36809945589256</v>
       </c>
       <c r="M13" t="n">
         <v>103.7153686509695</v>
@@ -31934,25 +31934,25 @@
         <v>101.2492489996967</v>
       </c>
       <c r="O13" t="n">
-        <v>93.52006911704892</v>
+        <v>93.52006911704891</v>
       </c>
       <c r="P13" t="n">
-        <v>80.02257522081412</v>
+        <v>80.0225752208141</v>
       </c>
       <c r="Q13" t="n">
-        <v>55.4034831899368</v>
+        <v>55.40348318993679</v>
       </c>
       <c r="R13" t="n">
-        <v>29.74982389072059</v>
+        <v>29.74982389072058</v>
       </c>
       <c r="S13" t="n">
         <v>11.53061310119518</v>
       </c>
       <c r="T13" t="n">
-        <v>2.827015209995689</v>
+        <v>2.827015209995688</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03608955587228544</v>
+        <v>0.03608955587228543</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -35415,22 +35415,22 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>57.83218024033633</v>
       </c>
       <c r="M11" t="n">
-        <v>57.83218024033636</v>
+        <v>28.65384977515632</v>
       </c>
       <c r="N11" t="n">
-        <v>57.83218024033636</v>
+        <v>33.77791152506762</v>
       </c>
       <c r="O11" t="n">
-        <v>57.83218024033636</v>
+        <v>18.42556316830863</v>
       </c>
       <c r="P11" t="n">
-        <v>55.49552649325205</v>
+        <v>32.47038226505578</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>57.83218024033633</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35494,19 +35494,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>32.8032008347592</v>
+        <v>51.4234364551664</v>
       </c>
       <c r="M12" t="n">
-        <v>57.83218024033636</v>
+        <v>57.83218024033633</v>
       </c>
       <c r="N12" t="n">
-        <v>57.83218024033636</v>
+        <v>57.83218024033633</v>
       </c>
       <c r="O12" t="n">
-        <v>57.83218024033636</v>
+        <v>45.17538823108356</v>
       </c>
       <c r="P12" t="n">
-        <v>22.69232565849287</v>
+        <v>16.7288820473384</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>54.60126218208502</v>
+        <v>54.60126218208501</v>
       </c>
       <c r="L13" t="n">
-        <v>57.83218024033636</v>
+        <v>57.83218024033633</v>
       </c>
       <c r="M13" t="n">
-        <v>57.83218024033636</v>
+        <v>57.83218024033633</v>
       </c>
       <c r="N13" t="n">
-        <v>0.8942643111670534</v>
+        <v>57.83218024033633</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>0.8942643111670247</v>
       </c>
       <c r="P13" t="n">
-        <v>57.83218024033636</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35661,13 +35661,13 @@
         <v>33.77791152506768</v>
       </c>
       <c r="O14" t="n">
+        <v>57.83218024033636</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
         <v>50.89594543336437</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>57.83218024033636</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35731,7 +35731,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>32.8032008347592</v>
+        <v>51.42343645516639</v>
       </c>
       <c r="M15" t="n">
         <v>57.83218024033636</v>
@@ -35746,7 +35746,7 @@
         <v>16.72888204733843</v>
       </c>
       <c r="Q15" t="n">
-        <v>18.62023562040719</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,19 +35807,19 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>54.60126218208502</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>57.83218024033636</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>57.83218024033636</v>
       </c>
       <c r="N16" t="n">
-        <v>0.894264311167039</v>
+        <v>55.49552649325206</v>
       </c>
       <c r="O16" t="n">
-        <v>57.83218024033636</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>57.83218024033636</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>73.91701274985817</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>52.50490361185823</v>
       </c>
       <c r="M17" t="n">
-        <v>28.65384977515637</v>
+        <v>73.91701274985817</v>
       </c>
       <c r="N17" t="n">
         <v>73.91701274985817</v>
       </c>
       <c r="O17" t="n">
-        <v>73.91701274985817</v>
+        <v>18.42556316830868</v>
       </c>
       <c r="P17" t="n">
-        <v>73.91701274985817</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>42.27661700501054</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35971,7 +35971,7 @@
         <v>32.8032008347592</v>
       </c>
       <c r="M18" t="n">
-        <v>66.86889046418231</v>
+        <v>73.91701274985817</v>
       </c>
       <c r="N18" t="n">
         <v>73.91701274985817</v>
@@ -35980,7 +35980,7 @@
         <v>45.17538823108359</v>
       </c>
       <c r="P18" t="n">
-        <v>73.91701274985817</v>
+        <v>66.86889046418234</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36050,13 +36050,13 @@
         <v>73.91701274985817</v>
       </c>
       <c r="M19" t="n">
+        <v>16.32920459808189</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
         <v>73.91701274985817</v>
-      </c>
-      <c r="N19" t="n">
-        <v>16.32920459808189</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>73.91701274985817</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
         <v>73.91701274985817</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>28.65384977515637</v>
       </c>
       <c r="N20" t="n">
         <v>73.91701274985817</v>
       </c>
       <c r="O20" t="n">
-        <v>42.27661700501054</v>
+        <v>73.91701274985817</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>70.93046678016695</v>
       </c>
       <c r="Q20" t="n">
-        <v>73.91701274985817</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36205,19 +36205,19 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>32.8032008347592</v>
+        <v>73.91701274985817</v>
       </c>
       <c r="M21" t="n">
-        <v>66.86889046418231</v>
+        <v>73.91701274985817</v>
       </c>
       <c r="N21" t="n">
         <v>73.91701274985817</v>
       </c>
       <c r="O21" t="n">
-        <v>45.17538823108359</v>
+        <v>54.20158473282851</v>
       </c>
       <c r="P21" t="n">
-        <v>73.91701274985817</v>
+        <v>16.72888204733843</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>54.60126218208502</v>
       </c>
       <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
         <v>73.91701274985817</v>
       </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
       <c r="N22" t="n">
-        <v>70.93046678016691</v>
+        <v>73.91701274985817</v>
       </c>
       <c r="O22" t="n">
         <v>73.91701274985817</v>
       </c>
       <c r="P22" t="n">
-        <v>73.91701274985817</v>
+        <v>16.32920459808189</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>132.5581813452446</v>
+        <v>142.6494537032433</v>
       </c>
       <c r="L23" t="n">
         <v>167.8571228450911</v>
       </c>
       <c r="M23" t="n">
-        <v>28.65384977515637</v>
+        <v>167.8571228450911</v>
       </c>
       <c r="N23" t="n">
         <v>167.8571228450911</v>
@@ -36378,7 +36378,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>149.2945454279335</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>73.81584972050142</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36454,10 +36454,10 @@
         <v>167.8571228450911</v>
       </c>
       <c r="P24" t="n">
-        <v>123.3670970059472</v>
+        <v>29.32582388135758</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>167.8571228450911</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,16 +36594,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>113.2409367798186</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>47.83408009173348</v>
+        <v>167.8571228450911</v>
       </c>
       <c r="M26" t="n">
-        <v>167.8571228450911</v>
+        <v>161.0750168715521</v>
       </c>
       <c r="N26" t="n">
         <v>167.8571228450911</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>73.81584972050142</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36682,16 +36682,16 @@
         <v>167.8571228450911</v>
       </c>
       <c r="M27" t="n">
-        <v>164.4703951989451</v>
+        <v>115.8996286404685</v>
       </c>
       <c r="N27" t="n">
-        <v>73.91701274985817</v>
+        <v>167.8571228450911</v>
       </c>
       <c r="O27" t="n">
+        <v>45.17538823108359</v>
+      </c>
+      <c r="P27" t="n">
         <v>167.8571228450911</v>
-      </c>
-      <c r="P27" t="n">
-        <v>16.72888204733843</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36837,19 +36837,19 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>11.78047144361852</v>
       </c>
       <c r="M29" t="n">
         <v>167.8571228450911</v>
       </c>
       <c r="N29" t="n">
-        <v>161.212031120401</v>
+        <v>167.8571228450911</v>
       </c>
       <c r="O29" t="n">
-        <v>18.42556316830868</v>
+        <v>167.8571228450911</v>
       </c>
       <c r="P29" t="n">
-        <v>167.8571228450911</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>149.2945454279335</v>
@@ -36913,25 +36913,25 @@
         <v>73.81584972050142</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>86.49180613310237</v>
       </c>
       <c r="L30" t="n">
+        <v>32.8032008347592</v>
+      </c>
+      <c r="M30" t="n">
         <v>167.8571228450911</v>
-      </c>
-      <c r="M30" t="n">
-        <v>57.83218024033636</v>
       </c>
       <c r="N30" t="n">
         <v>73.91701274985817</v>
       </c>
       <c r="O30" t="n">
+        <v>45.17538823108359</v>
+      </c>
+      <c r="P30" t="n">
+        <v>16.72888204733843</v>
+      </c>
+      <c r="Q30" t="n">
         <v>167.8571228450911</v>
-      </c>
-      <c r="P30" t="n">
-        <v>123.3670970059472</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37004,7 +37004,7 @@
         <v>145.3814213789253</v>
       </c>
       <c r="O31" t="n">
-        <v>118.1051970310887</v>
+        <v>118.1051970310886</v>
       </c>
       <c r="P31" t="n">
         <v>77.30113448570761</v>
@@ -37068,22 +37068,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>113.2409367798186</v>
       </c>
       <c r="K32" t="n">
-        <v>161.212031120401</v>
+        <v>167.8571228450911</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
+        <v>32.61874598382335</v>
+      </c>
+      <c r="N32" t="n">
+        <v>33.77791152506768</v>
+      </c>
+      <c r="O32" t="n">
         <v>167.8571228450911</v>
-      </c>
-      <c r="N32" t="n">
-        <v>167.8571228450911</v>
-      </c>
-      <c r="O32" t="n">
-        <v>18.42556316830868</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -37150,10 +37150,10 @@
         <v>73.81584972050142</v>
       </c>
       <c r="K33" t="n">
-        <v>167.8571228450911</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>32.8032008347592</v>
+        <v>78.19170877486361</v>
       </c>
       <c r="M33" t="n">
         <v>57.83218024033636</v>
@@ -37162,13 +37162,13 @@
         <v>73.91701274985817</v>
       </c>
       <c r="O33" t="n">
-        <v>90.56389617118801</v>
+        <v>45.17538823108359</v>
       </c>
       <c r="P33" t="n">
         <v>167.8571228450911</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>167.8571228450911</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37229,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>54.60126218208507</v>
+        <v>54.60126218208502</v>
       </c>
       <c r="L34" t="n">
         <v>125.9581247162087</v>
@@ -37317,16 +37317,16 @@
         <v>110.0249426047548</v>
       </c>
       <c r="N35" t="n">
-        <v>33.77791152506768</v>
+        <v>110.0249426047548</v>
       </c>
       <c r="O35" t="n">
         <v>110.0249426047548</v>
       </c>
       <c r="P35" t="n">
-        <v>110.0249426047548</v>
+        <v>105.5794903783001</v>
       </c>
       <c r="Q35" t="n">
-        <v>71.80157885323233</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37387,22 +37387,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>110.0249426047548</v>
       </c>
       <c r="L36" t="n">
         <v>110.0249426047548</v>
       </c>
       <c r="M36" t="n">
-        <v>57.83218024033636</v>
+        <v>79.78314995477463</v>
       </c>
       <c r="N36" t="n">
-        <v>110.0249426047548</v>
+        <v>73.91701274985817</v>
       </c>
       <c r="O36" t="n">
-        <v>47.74731013796366</v>
+        <v>45.17538823108359</v>
       </c>
       <c r="P36" t="n">
-        <v>110.0249426047548</v>
+        <v>16.72888204733843</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37472,10 +37472,10 @@
         <v>110.0249426047548</v>
       </c>
       <c r="M37" t="n">
-        <v>28.27835589259243</v>
+        <v>110.0249426047548</v>
       </c>
       <c r="N37" t="n">
-        <v>110.0249426047548</v>
+        <v>28.27835589259245</v>
       </c>
       <c r="O37" t="n">
         <v>110.0249426047548</v>
@@ -37542,25 +37542,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
         <v>110.0249426047548</v>
       </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>28.65384977515637</v>
+        <v>110.0249426047548</v>
       </c>
       <c r="N38" t="n">
+        <v>105.5794903783001</v>
+      </c>
+      <c r="O38" t="n">
         <v>110.0249426047548</v>
       </c>
-      <c r="O38" t="n">
-        <v>76.92564060314363</v>
-      </c>
       <c r="P38" t="n">
-        <v>110.0249426047548</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37624,10 +37624,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>110.0249426047548</v>
       </c>
       <c r="L39" t="n">
-        <v>110.0249426047548</v>
+        <v>32.8032008347592</v>
       </c>
       <c r="M39" t="n">
         <v>57.83218024033636</v>
@@ -37636,13 +37636,13 @@
         <v>73.91701274985817</v>
       </c>
       <c r="O39" t="n">
-        <v>110.0249426047548</v>
+        <v>45.17538823108359</v>
       </c>
       <c r="P39" t="n">
-        <v>83.85523999286031</v>
+        <v>16.72888204733843</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>99.17271148443385</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37706,16 +37706,16 @@
         <v>54.60126218208502</v>
       </c>
       <c r="L40" t="n">
-        <v>110.0249426047548</v>
+        <v>83.70203631526221</v>
       </c>
       <c r="M40" t="n">
         <v>110.0249426047548</v>
       </c>
       <c r="N40" t="n">
-        <v>83.70203631526212</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>110.0249426047548</v>
       </c>
       <c r="P40" t="n">
         <v>77.30113448570761</v>
@@ -37779,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>93.94011009523297</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>93.94011009523297</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>9.287225622852382</v>
       </c>
       <c r="M41" t="n">
         <v>28.65384977515637</v>
       </c>
       <c r="N41" t="n">
-        <v>61.49070031622887</v>
+        <v>33.77791152506768</v>
       </c>
       <c r="O41" t="n">
-        <v>93.94011009523305</v>
+        <v>18.42556316830868</v>
       </c>
       <c r="P41" t="n">
-        <v>93.94011009523305</v>
+        <v>93.94011009523297</v>
       </c>
       <c r="Q41" t="n">
-        <v>93.94011009523305</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37864,19 +37864,19 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>93.94011009523305</v>
+        <v>32.8032008347592</v>
       </c>
       <c r="M42" t="n">
-        <v>93.43876538942168</v>
+        <v>57.83218024033636</v>
       </c>
       <c r="N42" t="n">
-        <v>73.91701274985817</v>
+        <v>93.94011009523297</v>
       </c>
       <c r="O42" t="n">
-        <v>93.94011009523305</v>
+        <v>93.94011009523297</v>
       </c>
       <c r="P42" t="n">
-        <v>16.72888204733843</v>
+        <v>93.44927911152256</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37940,22 +37940,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>54.60126218208502</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>93.94011009523305</v>
+        <v>93.94011009523297</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>12.84341560567754</v>
       </c>
       <c r="N43" t="n">
-        <v>93.94011009523305</v>
+        <v>93.94011009523297</v>
       </c>
       <c r="O43" t="n">
-        <v>93.94011009523305</v>
+        <v>93.94011009523297</v>
       </c>
       <c r="P43" t="n">
-        <v>35.54328790930023</v>
+        <v>77.30113448570761</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38016,25 +38016,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>93.94011009523305</v>
+        <v>93.94011009523297</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>93.94011009523305</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>93.94011009523305</v>
+        <v>28.65384977515637</v>
       </c>
       <c r="N44" t="n">
-        <v>33.77791152506768</v>
+        <v>61.49070031622874</v>
       </c>
       <c r="O44" t="n">
-        <v>56.3666385663176</v>
+        <v>93.94011009523297</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>93.94011009523297</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38101,7 +38101,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>84.37130701323478</v>
+        <v>32.8032008347592</v>
       </c>
       <c r="M45" t="n">
         <v>57.83218024033636</v>
@@ -38113,10 +38113,10 @@
         <v>45.17538823108359</v>
       </c>
       <c r="P45" t="n">
-        <v>16.72888204733843</v>
+        <v>93.94011009523297</v>
       </c>
       <c r="Q45" t="n">
-        <v>93.94011009523305</v>
+        <v>68.29698822581383</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,22 +38177,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>54.60126218208502</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>93.94011009523305</v>
+        <v>93.94011009523297</v>
       </c>
       <c r="M46" t="n">
-        <v>93.94011009523305</v>
+        <v>90.14455009138513</v>
       </c>
       <c r="N46" t="n">
-        <v>52.18226351882568</v>
+        <v>93.94011009523297</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>93.94011009523297</v>
       </c>
       <c r="P46" t="n">
-        <v>77.30113448570761</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
